--- a/capiq_data/in_process_data/IQ30439.xlsx
+++ b/capiq_data/in_process_data/IQ30439.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA17AA80-4626-4B25-96D6-DC1205AE83D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B4EA81-510C-47F0-B21B-721C0574FB46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"de6e2e8a-97de-4771-ad13-fb09e99b1d8b"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"36cf8c3f-d836-48fc-9374-b53678c78b0d"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>190.233</v>
+        <v>62.156999999999996</v>
       </c>
       <c r="D2">
-        <v>1189.941</v>
+        <v>295.38600000000002</v>
       </c>
       <c r="E2">
-        <v>596.62199999999996</v>
+        <v>176.535</v>
       </c>
       <c r="F2">
-        <v>792.00099999999998</v>
+        <v>193.86199999999999</v>
       </c>
       <c r="G2">
-        <v>3214.37</v>
+        <v>1348.547</v>
       </c>
       <c r="H2">
-        <v>8467.8510000000006</v>
+        <v>2103.1289999999999</v>
       </c>
       <c r="I2">
-        <v>292.27</v>
+        <v>72.346999999999994</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>861</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1471.9760000000001</v>
+        <v>216.40799999999999</v>
       </c>
       <c r="O2">
-        <v>1859.0509999999999</v>
+        <v>1373.127</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>861</v>
       </c>
       <c r="Q2">
-        <v>350.97300000000001</v>
+        <v>-8.1959999999999997</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>8772</v>
+        <v>927</v>
       </c>
       <c r="T2">
-        <v>6608.8</v>
+        <v>730.00199999999995</v>
       </c>
       <c r="U2">
-        <v>1811.8869999999999</v>
+        <v>563.005</v>
       </c>
       <c r="V2">
-        <v>371.03500000000003</v>
+        <v>128.577</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>45.558</v>
+        <v>-106.102</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>223.614</v>
+        <v>16.638000000000002</v>
       </c>
       <c r="AA2">
-        <v>190.233</v>
+        <v>62.156999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>129.75</v>
+        <v>58.566000000000003</v>
       </c>
       <c r="D3">
-        <v>1101.6120000000001</v>
+        <v>332.10500000000002</v>
       </c>
       <c r="E3">
-        <v>471.012</v>
+        <v>193.16900000000001</v>
       </c>
       <c r="F3">
-        <v>736.88400000000001</v>
+        <v>218.30099999999999</v>
       </c>
       <c r="G3">
-        <v>4304.4269999999997</v>
+        <v>1281.914</v>
       </c>
       <c r="H3">
-        <v>9693.7000000000007</v>
+        <v>2228.9720000000002</v>
       </c>
       <c r="I3">
-        <v>228.27500000000001</v>
+        <v>86.073999999999998</v>
       </c>
       <c r="J3">
-        <v>998.923</v>
+        <v>1152.356</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1403.7439999999999</v>
+        <v>245.852</v>
       </c>
       <c r="O3">
-        <v>2796.8510000000001</v>
+        <v>1398.2080000000001</v>
       </c>
       <c r="P3">
-        <v>998.923</v>
+        <v>1152.356</v>
       </c>
       <c r="Q3">
-        <v>1132.4960000000001</v>
+        <v>-5.2629999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>8403</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>6896.8490000000002</v>
+        <v>830.76400000000001</v>
       </c>
       <c r="U3">
-        <v>2944.3829999999998</v>
+        <v>557.74199999999996</v>
       </c>
       <c r="V3">
-        <v>239.65</v>
+        <v>128.43799999999999</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>1102.07</v>
+        <v>20.902999999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-126.679</v>
+        <v>64.763999999999996</v>
       </c>
       <c r="AA3">
-        <v>129.75</v>
+        <v>58.566000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>115.56</v>
+        <v>-37.131</v>
       </c>
       <c r="D4">
-        <v>1120.5440000000001</v>
+        <v>202.18100000000001</v>
       </c>
       <c r="E4">
-        <v>488.03699999999998</v>
+        <v>137.12100000000001</v>
       </c>
       <c r="F4">
-        <v>723.68100000000004</v>
+        <v>121.651</v>
       </c>
       <c r="G4">
-        <v>4285.9430000000002</v>
+        <v>1175.9749999999999</v>
       </c>
       <c r="H4">
-        <v>9793.1170000000002</v>
+        <v>2251.739</v>
       </c>
       <c r="I4">
-        <v>250.06800000000001</v>
+        <v>62.947000000000003</v>
       </c>
       <c r="J4">
-        <v>998.96</v>
+        <v>1150</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1429.348</v>
+        <v>259.74299999999999</v>
       </c>
       <c r="O4">
-        <v>2831.1869999999999</v>
+        <v>1409.7429999999999</v>
       </c>
       <c r="P4">
-        <v>998.96</v>
+        <v>1150</v>
       </c>
       <c r="Q4">
-        <v>-106.31699999999999</v>
+        <v>-45.326999999999998</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>8607</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>6961.93</v>
+        <v>841.99599999999998</v>
       </c>
       <c r="U4">
-        <v>2838.0659999999998</v>
+        <v>512.41499999999996</v>
       </c>
       <c r="V4">
-        <v>318.30700000000002</v>
+        <v>99.733000000000004</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-103.416</v>
+        <v>11.685</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-255.50299999999999</v>
+        <v>-150.38200000000001</v>
       </c>
       <c r="AA4">
-        <v>115.56</v>
+        <v>-37.131</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>83.662999999999997</v>
+        <v>-29.725999999999999</v>
       </c>
       <c r="D5">
-        <v>1105.796</v>
+        <v>201.703</v>
       </c>
       <c r="E5">
-        <v>444</v>
+        <v>111.905</v>
       </c>
       <c r="F5">
-        <v>711.60400000000004</v>
+        <v>83.355000000000004</v>
       </c>
       <c r="G5">
-        <v>4131.59</v>
+        <v>1215.6030000000001</v>
       </c>
       <c r="H5">
-        <v>9707.0920000000006</v>
+        <v>2266.7759999999998</v>
       </c>
       <c r="I5">
-        <v>262.59399999999999</v>
+        <v>56.484000000000002</v>
       </c>
       <c r="J5">
-        <v>998.99699999999996</v>
+        <v>1150</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1366.68</v>
+        <v>293.12900000000002</v>
       </c>
       <c r="O5">
-        <v>2768.9079999999999</v>
+        <v>1443.1289999999999</v>
       </c>
       <c r="P5">
-        <v>998.99699999999996</v>
+        <v>1150</v>
       </c>
       <c r="Q5">
-        <v>-115.617</v>
+        <v>154.05699999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>8510</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>6938.1840000000002</v>
+        <v>823.64700000000005</v>
       </c>
       <c r="U5">
-        <v>2722.4490000000001</v>
+        <v>666.47199999999998</v>
       </c>
       <c r="V5">
-        <v>185.16399999999999</v>
+        <v>79.959000000000003</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-177.71700000000001</v>
+        <v>5.1360000000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-51.183</v>
+        <v>76.275000000000006</v>
       </c>
       <c r="AA5">
-        <v>83.662999999999997</v>
+        <v>-29.725999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>96.126999999999995</v>
+        <v>-5.1260000000000003</v>
       </c>
       <c r="D6">
-        <v>1120.748</v>
+        <v>151.03299999999999</v>
       </c>
       <c r="E6">
-        <v>577.4</v>
+        <v>103.524</v>
       </c>
       <c r="F6">
-        <v>698.94899999999996</v>
+        <v>90.531000000000006</v>
       </c>
       <c r="G6">
-        <v>4439.7</v>
+        <v>1126.048</v>
       </c>
       <c r="H6">
-        <v>9983.7999999999993</v>
+        <v>2389.5880000000002</v>
       </c>
       <c r="I6">
-        <v>324.89999999999998</v>
+        <v>76.417000000000002</v>
       </c>
       <c r="J6">
-        <v>999</v>
+        <v>1150</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1466.7</v>
+        <v>242.21899999999999</v>
       </c>
       <c r="O6">
-        <v>2894.1</v>
+        <v>1392.2190000000001</v>
       </c>
       <c r="P6">
-        <v>999</v>
+        <v>1150</v>
       </c>
       <c r="Q6">
-        <v>187.93799999999999</v>
+        <v>-59.627000000000002</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>9129</v>
+        <v>1227</v>
       </c>
       <c r="T6">
-        <v>7089.7</v>
+        <v>997.36900000000003</v>
       </c>
       <c r="U6">
-        <v>2910.4</v>
+        <v>606.84500000000003</v>
       </c>
       <c r="V6">
-        <v>243.57900000000001</v>
+        <v>-15.371</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-1.9370000000000001</v>
+        <v>20.773</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>24.364999999999998</v>
+        <v>-59.671999999999997</v>
       </c>
       <c r="AA6">
-        <v>96.126999999999995</v>
+        <v>-5.1260000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>16.3</v>
+        <v>-46.003</v>
       </c>
       <c r="D7">
-        <v>1032.5</v>
+        <v>122.21899999999999</v>
       </c>
       <c r="E7">
-        <v>450.98700000000002</v>
+        <v>65.915999999999997</v>
       </c>
       <c r="F7">
-        <v>634.1</v>
+        <v>71.882000000000005</v>
       </c>
       <c r="G7">
-        <v>4231.018</v>
+        <v>1147.329</v>
       </c>
       <c r="H7">
-        <v>9945.0229999999992</v>
+        <v>2320.991</v>
       </c>
       <c r="I7">
-        <v>195.42</v>
+        <v>53.127000000000002</v>
       </c>
       <c r="J7">
-        <v>999.07100000000003</v>
+        <v>1150</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1360.7560000000001</v>
+        <v>204.43199999999999</v>
       </c>
       <c r="O7">
-        <v>2772.0639999999999</v>
+        <v>1354.432</v>
       </c>
       <c r="P7">
-        <v>999.07100000000003</v>
+        <v>1150</v>
       </c>
       <c r="Q7">
-        <v>2.7</v>
+        <v>98.338999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>7172.9589999999998</v>
+        <v>966.55899999999997</v>
       </c>
       <c r="U7">
-        <v>2913.0949999999998</v>
+        <v>705.18399999999997</v>
       </c>
       <c r="V7">
-        <v>102.3</v>
+        <v>11.984</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-6.3</v>
+        <v>7.4050000000000002</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>79.2</v>
+        <v>84.725999999999999</v>
       </c>
       <c r="AA7">
-        <v>16.3</v>
+        <v>-46.003</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>57.7</v>
+        <v>6.2309999999999999</v>
       </c>
       <c r="D8">
-        <v>1073.8</v>
+        <v>117.036</v>
       </c>
       <c r="E8">
-        <v>406.75599999999997</v>
+        <v>62.264000000000003</v>
       </c>
       <c r="F8">
-        <v>667.9</v>
+        <v>68.59</v>
       </c>
       <c r="G8">
-        <v>4229.7560000000003</v>
+        <v>1054.115</v>
       </c>
       <c r="H8">
-        <v>10046.281000000001</v>
+        <v>2337.1080000000002</v>
       </c>
       <c r="I8">
-        <v>199.56299999999999</v>
+        <v>55.533999999999999</v>
       </c>
       <c r="J8">
-        <v>999.10799999999995</v>
+        <v>1150</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1453.2639999999999</v>
+        <v>215.149</v>
       </c>
       <c r="O8">
-        <v>2837.3580000000002</v>
+        <v>1365.1489999999999</v>
       </c>
       <c r="P8">
-        <v>999.10799999999995</v>
+        <v>1150</v>
       </c>
       <c r="Q8">
-        <v>131.19999999999999</v>
+        <v>-115.358</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>7208.9229999999998</v>
+        <v>971.95899999999995</v>
       </c>
       <c r="U8">
-        <v>3044.31</v>
+        <v>589.82600000000002</v>
       </c>
       <c r="V8">
-        <v>212.1</v>
+        <v>27.867000000000001</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-80.5</v>
+        <v>1.159</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>87.8</v>
+        <v>-129.56800000000001</v>
       </c>
       <c r="AA8">
-        <v>57.7</v>
+        <v>6.2309999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>16.8</v>
+        <v>-88.33</v>
       </c>
       <c r="D9">
-        <v>1118.3</v>
+        <v>152.02600000000001</v>
       </c>
       <c r="E9">
-        <v>397.08199999999999</v>
+        <v>74.046000000000006</v>
       </c>
       <c r="F9">
-        <v>726.2</v>
+        <v>82.867000000000004</v>
       </c>
       <c r="G9">
-        <v>3942.299</v>
+        <v>738.24599999999998</v>
       </c>
       <c r="H9">
-        <v>9960.5939999999991</v>
+        <v>2620.59</v>
       </c>
       <c r="I9">
-        <v>224.24199999999999</v>
+        <v>58.066000000000003</v>
       </c>
       <c r="J9">
-        <v>999.14499999999998</v>
+        <v>942.11400000000003</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1501.8009999999999</v>
+        <v>264.87200000000001</v>
       </c>
       <c r="O9">
-        <v>2880.7139999999999</v>
+        <v>1206.9860000000001</v>
       </c>
       <c r="P9">
-        <v>999.14499999999998</v>
+        <v>942.11400000000003</v>
       </c>
       <c r="Q9">
-        <v>-336.4</v>
+        <v>-341.05599999999998</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>7079.88</v>
+        <v>1413.604</v>
       </c>
       <c r="U9">
-        <v>2707.94</v>
+        <v>248.77</v>
       </c>
       <c r="V9">
-        <v>173.2</v>
+        <v>-43.716999999999999</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-235.5</v>
+        <v>-136.35400000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-101.4</v>
+        <v>218.98099999999999</v>
       </c>
       <c r="AA9">
-        <v>16.8</v>
+        <v>-88.33</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>95.7</v>
+        <v>8.452</v>
       </c>
       <c r="D10">
-        <v>1140.8</v>
+        <v>155.26599999999999</v>
       </c>
       <c r="E10">
-        <v>438.4</v>
+        <v>78.501000000000005</v>
       </c>
       <c r="F10">
-        <v>733.5</v>
+        <v>97.129000000000005</v>
       </c>
       <c r="G10">
-        <v>3600.7</v>
+        <v>680.92899999999997</v>
       </c>
       <c r="H10">
-        <v>9832.1</v>
+        <v>2614.6689999999999</v>
       </c>
       <c r="I10">
-        <v>209.3</v>
+        <v>51.747</v>
       </c>
       <c r="J10">
-        <v>999.2</v>
+        <v>942.11400000000003</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,161 +1556,161 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1422</v>
+        <v>242.024</v>
       </c>
       <c r="O10">
-        <v>2832.6</v>
+        <v>1184.1379999999999</v>
       </c>
       <c r="P10">
-        <v>999.2</v>
+        <v>942.11400000000003</v>
       </c>
       <c r="Q10">
-        <v>-300.10000000000002</v>
+        <v>-54.335000000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>9234</v>
+        <v>1542</v>
       </c>
       <c r="T10">
-        <v>6999.5</v>
+        <v>1430.5309999999999</v>
       </c>
       <c r="U10">
-        <v>2407.8000000000002</v>
+        <v>194.435</v>
       </c>
       <c r="V10">
-        <v>154.80000000000001</v>
+        <v>6.2759999999999998</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-226</v>
+        <v>8.4350000000000005</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-88</v>
+        <v>-57.673999999999999</v>
       </c>
       <c r="AA10">
-        <v>95.7</v>
+        <v>8.452</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>91</v>
+        <v>3.6829999999999998</v>
       </c>
       <c r="D11">
-        <v>1059.2</v>
+        <v>157.20699999999999</v>
       </c>
       <c r="E11">
-        <v>532.6</v>
+        <v>84.507999999999996</v>
       </c>
       <c r="F11">
-        <v>671.5</v>
+        <v>95.747</v>
       </c>
       <c r="G11">
-        <v>3540</v>
+        <v>666.86800000000005</v>
       </c>
       <c r="H11">
-        <v>9830.4</v>
+        <v>2627.83</v>
       </c>
       <c r="I11">
-        <v>223.8</v>
+        <v>61.728999999999999</v>
       </c>
       <c r="J11">
-        <v>999.2</v>
+        <v>942.11400000000003</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>-2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>-1.4</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1423.7</v>
+        <v>239.94</v>
       </c>
       <c r="O11">
-        <v>2774</v>
+        <v>1182.0540000000001</v>
       </c>
       <c r="P11">
-        <v>999.2</v>
+        <v>942.11400000000003</v>
       </c>
       <c r="Q11">
-        <v>-364.1</v>
+        <v>55.906999999999996</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>7056.4</v>
+        <v>1445.7760000000001</v>
       </c>
       <c r="U11">
-        <v>2043.7</v>
+        <v>250.34200000000001</v>
       </c>
       <c r="V11">
-        <v>-8.9</v>
+        <v>12.401999999999999</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-70.099999999999994</v>
+        <v>11.064</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-203.6</v>
+        <v>37.662999999999997</v>
       </c>
       <c r="AA11">
-        <v>91</v>
+        <v>3.6829999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>97.9</v>
+        <v>13.577999999999999</v>
       </c>
       <c r="D12">
-        <v>1150.7</v>
+        <v>165.10300000000001</v>
       </c>
       <c r="E12">
-        <v>509.1</v>
+        <v>73.766999999999996</v>
       </c>
       <c r="F12">
-        <v>721.3</v>
+        <v>102.54300000000001</v>
       </c>
       <c r="G12">
-        <v>3654.1</v>
+        <v>931.81100000000004</v>
       </c>
       <c r="H12">
-        <v>10013.700000000001</v>
+        <v>2980.3</v>
       </c>
       <c r="I12">
-        <v>206.4</v>
+        <v>58.109000000000002</v>
       </c>
       <c r="J12">
-        <v>999.3</v>
+        <v>1239.9939999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1422.8</v>
+        <v>258.541</v>
       </c>
       <c r="O12">
-        <v>2896.1</v>
+        <v>1498.5350000000001</v>
       </c>
       <c r="P12">
-        <v>999.3</v>
+        <v>1239.9939999999999</v>
       </c>
       <c r="Q12">
-        <v>206.2</v>
+        <v>266.15100000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>7117.6</v>
+        <v>1481.7650000000001</v>
       </c>
       <c r="U12">
-        <v>2249.9</v>
+        <v>516.49300000000005</v>
       </c>
       <c r="V12">
-        <v>284.39999999999998</v>
+        <v>60.27</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-62.5</v>
+        <v>319.74</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>65.099999999999994</v>
+        <v>-84.575999999999993</v>
       </c>
       <c r="AA12">
-        <v>97.9</v>
+        <v>13.577999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>99.1</v>
+        <v>7.2050000000000001</v>
       </c>
       <c r="D13">
-        <v>1185.5999999999999</v>
+        <v>172.12799999999999</v>
       </c>
       <c r="E13">
-        <v>549.29999999999995</v>
+        <v>48.526000000000003</v>
       </c>
       <c r="F13">
-        <v>752.6</v>
+        <v>109.476</v>
       </c>
       <c r="G13">
-        <v>3680.4</v>
+        <v>839.58799999999997</v>
       </c>
       <c r="H13">
-        <v>10197.700000000001</v>
+        <v>2727.9160000000002</v>
       </c>
       <c r="I13">
-        <v>205.6</v>
+        <v>54.057000000000002</v>
       </c>
       <c r="J13">
-        <v>999.3</v>
+        <v>942.07600000000002</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1400.6</v>
+        <v>261.15699999999998</v>
       </c>
       <c r="O13">
-        <v>2886</v>
+        <v>1203.2329999999999</v>
       </c>
       <c r="P13">
-        <v>999.3</v>
+        <v>942.07600000000002</v>
       </c>
       <c r="Q13">
-        <v>21.6</v>
+        <v>-58.982999999999997</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>7311.7</v>
+        <v>1524.683</v>
       </c>
       <c r="U13">
-        <v>2271.5</v>
+        <v>457.51</v>
       </c>
       <c r="V13">
-        <v>176.4</v>
+        <v>42.936999999999998</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-33.9</v>
+        <v>-241.81</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-80.2</v>
+        <v>144.52099999999999</v>
       </c>
       <c r="AA13">
-        <v>99.1</v>
+        <v>7.2050000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>151.80000000000001</v>
+        <v>14.733000000000001</v>
       </c>
       <c r="D14">
-        <v>1273.5999999999999</v>
+        <v>206.95500000000001</v>
       </c>
       <c r="E14">
-        <v>578.29999999999995</v>
+        <v>77.963999999999999</v>
       </c>
       <c r="F14">
-        <v>804.4</v>
+        <v>136.31100000000001</v>
       </c>
       <c r="G14">
-        <v>3703.9</v>
+        <v>690.80899999999997</v>
       </c>
       <c r="H14">
-        <v>10326</v>
+        <v>2411.0970000000002</v>
       </c>
       <c r="I14">
-        <v>200.4</v>
+        <v>61.237000000000002</v>
       </c>
       <c r="J14">
-        <v>999.3</v>
+        <v>542.07600000000002</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1441.4</v>
+        <v>265.38799999999998</v>
       </c>
       <c r="O14">
-        <v>3023.8</v>
+        <v>848.654</v>
       </c>
       <c r="P14">
-        <v>999.3</v>
+        <v>542.07600000000002</v>
       </c>
       <c r="Q14">
-        <v>12.5</v>
+        <v>-91.903999999999996</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>9483</v>
+        <v>1553</v>
       </c>
       <c r="T14">
-        <v>7302.2</v>
+        <v>1562.443</v>
       </c>
       <c r="U14">
-        <v>2284</v>
+        <v>365.60599999999999</v>
       </c>
       <c r="V14">
-        <v>394</v>
+        <v>62.945</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-235.2</v>
+        <v>-396.50200000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-91.1</v>
+        <v>252.74199999999999</v>
       </c>
       <c r="AA14">
-        <v>151.80000000000001</v>
+        <v>14.733000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>110.6</v>
+        <v>33.54</v>
       </c>
       <c r="D15">
-        <v>1170.0999999999999</v>
+        <v>224.053</v>
       </c>
       <c r="E15">
-        <v>597.9</v>
+        <v>87.441999999999993</v>
       </c>
       <c r="F15">
-        <v>728.5</v>
+        <v>150.02199999999999</v>
       </c>
       <c r="G15">
-        <v>3879.8</v>
+        <v>774.60900000000004</v>
       </c>
       <c r="H15">
-        <v>9723.6</v>
+        <v>2516.5880000000002</v>
       </c>
       <c r="I15">
-        <v>222.2</v>
+        <v>65.228999999999999</v>
       </c>
       <c r="J15">
-        <v>1348.9</v>
+        <v>558.40300000000002</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1446.3</v>
+        <v>319.63900000000001</v>
       </c>
       <c r="O15">
-        <v>3414.1</v>
+        <v>878.04200000000003</v>
       </c>
       <c r="P15">
-        <v>1348.9</v>
+        <v>558.40300000000002</v>
       </c>
       <c r="Q15">
-        <v>295.39999999999998</v>
+        <v>62.887999999999998</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>6309.5</v>
+        <v>1638.546</v>
       </c>
       <c r="U15">
-        <v>2579.4</v>
+        <v>428.49400000000003</v>
       </c>
       <c r="V15">
-        <v>124.6</v>
+        <v>72.765000000000001</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-743.8</v>
+        <v>41.082999999999998</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>972.6</v>
+        <v>-43.35</v>
       </c>
       <c r="AA15">
-        <v>110.6</v>
+        <v>33.54</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>221.1</v>
+        <v>-12.554</v>
       </c>
       <c r="D16">
-        <v>1229.5</v>
+        <v>306.899</v>
       </c>
       <c r="E16">
-        <v>560.79999999999995</v>
+        <v>140.65</v>
       </c>
       <c r="F16">
-        <v>762</v>
+        <v>208.846</v>
       </c>
       <c r="G16">
-        <v>3497.7</v>
+        <v>1187.6210000000001</v>
       </c>
       <c r="H16">
-        <v>10137.299999999999</v>
+        <v>6679.5209999999997</v>
       </c>
       <c r="I16">
-        <v>246.3</v>
+        <v>92.799000000000007</v>
       </c>
       <c r="J16">
-        <v>1348.9</v>
+        <v>400</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1573.5</v>
+        <v>481.91300000000001</v>
       </c>
       <c r="O16">
-        <v>3525.8</v>
+        <v>930.19299999999998</v>
       </c>
       <c r="P16">
-        <v>1348.9</v>
+        <v>400</v>
       </c>
       <c r="Q16">
-        <v>-419.6</v>
+        <v>247.411</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>6611.5</v>
+        <v>5749.3280000000004</v>
       </c>
       <c r="U16">
-        <v>2159.8000000000002</v>
+        <v>675.90499999999997</v>
       </c>
       <c r="V16">
-        <v>423.6</v>
+        <v>119.012</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>12.7</v>
+        <v>-114.581</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-816.3</v>
+        <v>214.251</v>
       </c>
       <c r="AA16">
-        <v>221.1</v>
+        <v>-12.554</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>103.6</v>
+        <v>48.759</v>
       </c>
       <c r="D17">
-        <v>1125.9000000000001</v>
+        <v>375.01400000000001</v>
       </c>
       <c r="E17">
-        <v>617</v>
+        <v>162.04</v>
       </c>
       <c r="F17">
-        <v>714.8</v>
+        <v>261.101</v>
       </c>
       <c r="G17">
-        <v>3063.3</v>
+        <v>1187.0429999999999</v>
       </c>
       <c r="H17">
-        <v>9569</v>
+        <v>6771.2120000000004</v>
       </c>
       <c r="I17">
-        <v>242.2</v>
+        <v>105.39100000000001</v>
       </c>
       <c r="J17">
-        <v>1348.9</v>
+        <v>400</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1449</v>
+        <v>513.26800000000003</v>
       </c>
       <c r="O17">
-        <v>3378.6</v>
+        <v>961.846</v>
       </c>
       <c r="P17">
-        <v>1348.9</v>
+        <v>400</v>
       </c>
       <c r="Q17">
-        <v>-543.9</v>
+        <v>-8.1910000000000007</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>6190.4</v>
+        <v>5809.366</v>
       </c>
       <c r="U17">
-        <v>1615.9</v>
+        <v>667.71400000000006</v>
       </c>
       <c r="V17">
-        <v>-69.7</v>
+        <v>105.22</v>
       </c>
       <c r="W17">
-        <v>-43.8</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-560.4</v>
+        <v>-5.5810000000000004</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>117.6</v>
+        <v>-82.778999999999996</v>
       </c>
       <c r="AA17">
-        <v>103.6</v>
+        <v>48.759</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-769.6</v>
+        <v>66.001000000000005</v>
       </c>
       <c r="D18">
-        <v>1101.5999999999999</v>
+        <v>430.053</v>
       </c>
       <c r="E18">
-        <v>598.9</v>
+        <v>187.30600000000001</v>
       </c>
       <c r="F18">
-        <v>694.4</v>
+        <v>308.12599999999998</v>
       </c>
       <c r="G18">
-        <v>2810.6</v>
+        <v>1413.7329999999999</v>
       </c>
       <c r="H18">
-        <v>8281.4</v>
+        <v>6999.7139999999999</v>
       </c>
       <c r="I18">
-        <v>234.6</v>
+        <v>113.89</v>
       </c>
       <c r="J18">
-        <v>1349</v>
+        <v>400</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,81 +2220,81 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1513.4</v>
+        <v>496.17</v>
       </c>
       <c r="O18">
-        <v>3362.3</v>
+        <v>1006.977</v>
       </c>
       <c r="P18">
-        <v>1349</v>
+        <v>400</v>
       </c>
       <c r="Q18">
-        <v>23.7</v>
+        <v>45.468000000000004</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>8806</v>
+        <v>2948</v>
       </c>
       <c r="T18">
-        <v>4919.1000000000004</v>
+        <v>5992.7370000000001</v>
       </c>
       <c r="U18">
-        <v>1639.6</v>
+        <v>713.18200000000002</v>
       </c>
       <c r="V18">
-        <v>284.89999999999998</v>
+        <v>142.45099999999999</v>
       </c>
       <c r="W18">
-        <v>-42.2</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-532.70000000000005</v>
+        <v>45.673999999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>229.8</v>
+        <v>-124.044</v>
       </c>
       <c r="AA18">
-        <v>-769.6</v>
+        <v>66.001000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>80.2</v>
+        <v>75.435000000000002</v>
       </c>
       <c r="D19">
-        <v>1067.4000000000001</v>
+        <v>449.11200000000002</v>
       </c>
       <c r="E19">
-        <v>507.6</v>
+        <v>184.78899999999999</v>
       </c>
       <c r="F19">
-        <v>657.3</v>
+        <v>305.18599999999998</v>
       </c>
       <c r="G19">
-        <v>3101.7</v>
+        <v>1554.6</v>
       </c>
       <c r="H19">
-        <v>8666.6</v>
+        <v>7161.19</v>
       </c>
       <c r="I19">
-        <v>223.6</v>
+        <v>106.723</v>
       </c>
       <c r="J19">
-        <v>1648.7</v>
+        <v>479.11099999999999</v>
       </c>
       <c r="K19">
-        <v>299.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2303,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1770.4</v>
+        <v>515.78399999999999</v>
       </c>
       <c r="O19">
-        <v>4049.5</v>
+        <v>1026.2339999999999</v>
       </c>
       <c r="P19">
-        <v>1948.6</v>
+        <v>479.11099999999999</v>
       </c>
       <c r="Q19">
-        <v>171.2</v>
+        <v>106.366</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="T19">
-        <v>4617.1000000000004</v>
+        <v>6134.9560000000001</v>
       </c>
       <c r="U19">
-        <v>1810.8</v>
+        <v>819.548</v>
       </c>
       <c r="V19">
-        <v>219.3</v>
+        <v>134.38900000000001</v>
       </c>
       <c r="W19">
-        <v>-40.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>185.3</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-177.1</v>
+        <v>-44.780999999999999</v>
       </c>
       <c r="AA19">
-        <v>80.2</v>
+        <v>74.188000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>158</v>
+        <v>86.912999999999997</v>
       </c>
       <c r="D20">
-        <v>1222.2</v>
+        <v>493.02800000000002</v>
       </c>
       <c r="E20">
-        <v>533</v>
+        <v>205.36600000000001</v>
       </c>
       <c r="F20">
-        <v>781.5</v>
+        <v>337.31299999999999</v>
       </c>
       <c r="G20">
-        <v>2726.9</v>
+        <v>1614.432</v>
       </c>
       <c r="H20">
-        <v>8282.7999999999993</v>
+        <v>7383.8159999999998</v>
       </c>
       <c r="I20">
-        <v>222.6</v>
+        <v>116.145</v>
       </c>
       <c r="J20">
-        <v>1648.7</v>
+        <v>473.988</v>
       </c>
       <c r="K20">
-        <v>299.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1762.5</v>
+        <v>554.06600000000003</v>
       </c>
       <c r="O20">
-        <v>4034.9</v>
+        <v>1060.93</v>
       </c>
       <c r="P20">
-        <v>1948.6</v>
+        <v>473.988</v>
       </c>
       <c r="Q20">
-        <v>-480.5</v>
+        <v>37.512999999999998</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>3425</v>
       </c>
       <c r="T20">
-        <v>4247.8999999999996</v>
+        <v>6322.8860000000004</v>
       </c>
       <c r="U20">
-        <v>1330.3</v>
+        <v>857.06100000000004</v>
       </c>
       <c r="V20">
-        <v>263.2</v>
+        <v>166.12</v>
       </c>
       <c r="W20">
-        <v>-38.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-607.20000000000005</v>
+        <v>35.966000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-103.1</v>
+        <v>15.862</v>
       </c>
       <c r="AA20">
-        <v>158</v>
+        <v>88.16</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>197.7</v>
+        <v>83.495999999999995</v>
       </c>
       <c r="D21">
-        <v>1248.5999999999999</v>
+        <v>546.35299999999995</v>
       </c>
       <c r="E21">
-        <v>577.5</v>
+        <v>240.88800000000001</v>
       </c>
       <c r="F21">
-        <v>797.4</v>
+        <v>374.59199999999998</v>
       </c>
       <c r="G21">
-        <v>2898.1</v>
+        <v>1741.443</v>
       </c>
       <c r="H21">
-        <v>8505.9</v>
+        <v>7817.799</v>
       </c>
       <c r="I21">
-        <v>209.1</v>
+        <v>149.042</v>
       </c>
       <c r="J21">
-        <v>1648.7</v>
+        <v>485.642</v>
       </c>
       <c r="K21">
-        <v>299.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1734.9</v>
+        <v>583.53800000000001</v>
       </c>
       <c r="O21">
-        <v>4077.8</v>
+        <v>1106.9000000000001</v>
       </c>
       <c r="P21">
-        <v>1948.6</v>
+        <v>485.642</v>
       </c>
       <c r="Q21">
-        <v>123.2</v>
+        <v>31.343</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>3784</v>
       </c>
       <c r="T21">
-        <v>4428.1000000000004</v>
+        <v>6710.8990000000003</v>
       </c>
       <c r="U21">
-        <v>1453.5</v>
+        <v>888.404</v>
       </c>
       <c r="V21">
-        <v>293</v>
+        <v>144.92400000000001</v>
       </c>
       <c r="W21">
-        <v>-38.5</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-54.3</v>
+        <v>27.710999999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-43</v>
+        <v>-79.316000000000003</v>
       </c>
       <c r="AA21">
-        <v>197.7</v>
+        <v>83.495999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>197.8</v>
+        <v>104.857</v>
       </c>
       <c r="D22">
-        <v>1319.6</v>
+        <v>575.46400000000006</v>
       </c>
       <c r="E22">
-        <v>780.7</v>
+        <v>268.90699999999998</v>
       </c>
       <c r="F22">
-        <v>838.9</v>
+        <v>393.40899999999999</v>
       </c>
       <c r="G22">
-        <v>2912.4</v>
+        <v>1888.787</v>
       </c>
       <c r="H22">
-        <v>8607.9</v>
+        <v>8183.6109999999999</v>
       </c>
       <c r="I22">
-        <v>159.30000000000001</v>
+        <v>165.172</v>
       </c>
       <c r="J22">
-        <v>1637.5</v>
+        <v>399.959</v>
       </c>
       <c r="K22">
-        <v>299.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1801.9</v>
+        <v>627.40099999999995</v>
       </c>
       <c r="O22">
-        <v>4033.5</v>
+        <v>1095.377</v>
       </c>
       <c r="P22">
-        <v>1937.4</v>
+        <v>399.959</v>
       </c>
       <c r="Q22">
-        <v>-32.6</v>
+        <v>29.997</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>9058</v>
+        <v>4145</v>
       </c>
       <c r="T22">
-        <v>4574.3999999999996</v>
+        <v>7088.2340000000004</v>
       </c>
       <c r="U22">
-        <v>1420.9</v>
+        <v>918.40099999999995</v>
       </c>
       <c r="V22">
-        <v>117</v>
+        <v>197.51</v>
       </c>
       <c r="W22">
-        <v>-38.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-105.2</v>
+        <v>42.954999999999998</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>19</v>
+        <v>-32.572000000000003</v>
       </c>
       <c r="AA22">
-        <v>197.8</v>
+        <v>104.857</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>91.4</v>
+        <v>75.763000000000005</v>
       </c>
       <c r="D23">
-        <v>1097.9000000000001</v>
+        <v>566.71400000000006</v>
       </c>
       <c r="E23">
-        <v>783.9</v>
+        <v>304.75</v>
       </c>
       <c r="F23">
-        <v>690.9</v>
+        <v>381.767</v>
       </c>
       <c r="G23">
-        <v>3274.2</v>
+        <v>1853.5719999999999</v>
       </c>
       <c r="H23">
-        <v>8917.7000000000007</v>
+        <v>8035.7640000000001</v>
       </c>
       <c r="I23">
-        <v>233</v>
+        <v>160.27799999999999</v>
       </c>
       <c r="J23">
-        <v>2131.8000000000002</v>
+        <v>399.94400000000002</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1515.3</v>
+        <v>631.37599999999998</v>
       </c>
       <c r="O23">
-        <v>4279.6000000000004</v>
+        <v>1116.165</v>
       </c>
       <c r="P23">
-        <v>2131.8000000000002</v>
+        <v>399.94400000000002</v>
       </c>
       <c r="Q23">
-        <v>225.1</v>
+        <v>-14.106</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>4164</v>
       </c>
       <c r="T23">
-        <v>4638.1000000000004</v>
+        <v>6919.5990000000002</v>
       </c>
       <c r="U23">
-        <v>1646</v>
+        <v>904.29499999999996</v>
       </c>
       <c r="V23">
-        <v>172.4</v>
+        <v>138.55799999999999</v>
       </c>
       <c r="W23">
-        <v>-38.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>104.3</v>
+        <v>-134.31</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-7.9</v>
+        <v>-6.2160000000000002</v>
       </c>
       <c r="AA23">
-        <v>91.4</v>
+        <v>75.763000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>140</v>
+        <v>-1206.4559999999999</v>
       </c>
       <c r="D24">
-        <v>1221.3</v>
+        <v>567.46900000000005</v>
       </c>
       <c r="E24">
-        <v>750.3</v>
+        <v>250.81800000000001</v>
       </c>
       <c r="F24">
-        <v>756.4</v>
+        <v>378.54599999999999</v>
       </c>
       <c r="G24">
-        <v>3453.8</v>
+        <v>2057.049</v>
       </c>
       <c r="H24">
-        <v>9062.7999999999993</v>
+        <v>7040.2709999999997</v>
       </c>
       <c r="I24">
-        <v>228.4</v>
+        <v>136.614</v>
       </c>
       <c r="J24">
-        <v>2132.5</v>
+        <v>399.94400000000002</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1581.8</v>
+        <v>663.59500000000003</v>
       </c>
       <c r="O24">
-        <v>4386.6000000000004</v>
+        <v>1138.681</v>
       </c>
       <c r="P24">
-        <v>2132.5</v>
+        <v>399.94400000000002</v>
       </c>
       <c r="Q24">
-        <v>110.9</v>
+        <v>183.31899999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>4347</v>
       </c>
       <c r="T24">
-        <v>4676.2</v>
+        <v>5901.59</v>
       </c>
       <c r="U24">
-        <v>1756.9</v>
+        <v>1087.614</v>
       </c>
       <c r="V24">
-        <v>360</v>
+        <v>217.904</v>
       </c>
       <c r="W24">
-        <v>-38.1</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-181</v>
+        <v>21.06</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>20.7</v>
+        <v>-30.183</v>
       </c>
       <c r="AA24">
-        <v>140</v>
+        <v>-1206.4559999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>172.4</v>
+        <v>58.274000000000001</v>
       </c>
       <c r="D25">
-        <v>1285.3</v>
+        <v>573.56700000000001</v>
       </c>
       <c r="E25">
-        <v>753.6</v>
+        <v>285.459</v>
       </c>
       <c r="F25">
-        <v>799.5</v>
+        <v>384.78199999999998</v>
       </c>
       <c r="G25">
-        <v>3429.4</v>
+        <v>2294.9409999999998</v>
       </c>
       <c r="H25">
-        <v>9145.2000000000007</v>
+        <v>7205.848</v>
       </c>
       <c r="I25">
-        <v>208.4</v>
+        <v>159.512</v>
       </c>
       <c r="J25">
-        <v>2133.1</v>
+        <v>399.94400000000002</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1508.4</v>
+        <v>690.66300000000001</v>
       </c>
       <c r="O25">
-        <v>4372.7</v>
+        <v>1178.9449999999999</v>
       </c>
       <c r="P25">
-        <v>2133.1</v>
+        <v>399.94400000000002</v>
       </c>
       <c r="Q25">
-        <v>-67.900000000000006</v>
+        <v>245.74100000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>4613</v>
       </c>
       <c r="T25">
-        <v>4772.5</v>
+        <v>6026.9030000000002</v>
       </c>
       <c r="U25">
-        <v>1689</v>
+        <v>1333.355</v>
       </c>
       <c r="V25">
-        <v>243.9</v>
+        <v>164.91399999999999</v>
       </c>
       <c r="W25">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-123.4</v>
+        <v>21.8</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-59.1</v>
+        <v>85.622</v>
       </c>
       <c r="AA25">
-        <v>172.4</v>
+        <v>58.274000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>188.9</v>
+        <v>70.981999999999999</v>
       </c>
       <c r="D26">
-        <v>1385.6</v>
+        <v>595.83000000000004</v>
       </c>
       <c r="E26">
-        <v>1054.0999999999999</v>
+        <v>249.44499999999999</v>
       </c>
       <c r="F26">
-        <v>857.7</v>
+        <v>405.59500000000003</v>
       </c>
       <c r="G26">
-        <v>3971.9</v>
+        <v>2521.806</v>
       </c>
       <c r="H26">
-        <v>9656.5</v>
+        <v>7368.3950000000004</v>
       </c>
       <c r="I26">
-        <v>221</v>
+        <v>179.553</v>
       </c>
       <c r="J26">
-        <v>2133.6999999999998</v>
+        <v>399.94400000000002</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1735.9</v>
+        <v>762.61699999999996</v>
       </c>
       <c r="O26">
-        <v>4694</v>
+        <v>1253.3109999999999</v>
       </c>
       <c r="P26">
-        <v>2133.6999999999998</v>
+        <v>399.94400000000002</v>
       </c>
       <c r="Q26">
-        <v>144.19999999999999</v>
+        <v>262.97800000000001</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>9832</v>
+        <v>4833</v>
       </c>
       <c r="T26">
-        <v>4962.5</v>
+        <v>6115.0839999999998</v>
       </c>
       <c r="U26">
-        <v>1833.2</v>
+        <v>1596.3330000000001</v>
       </c>
       <c r="V26">
-        <v>330.9</v>
+        <v>234.22800000000001</v>
       </c>
       <c r="W26">
-        <v>-38.1</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-36.200000000000003</v>
+        <v>1.8520000000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-40</v>
+        <v>59.433999999999997</v>
       </c>
       <c r="AA26">
-        <v>188.9</v>
+        <v>70.981999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>108.8</v>
+        <v>66.647000000000006</v>
       </c>
       <c r="D27">
-        <v>1221</v>
+        <v>626.93600000000004</v>
       </c>
       <c r="E27">
-        <v>670.9</v>
+        <v>257.83800000000002</v>
       </c>
       <c r="F27">
-        <v>746.6</v>
+        <v>414.827</v>
       </c>
       <c r="G27">
-        <v>3993.8</v>
+        <v>2937.3240000000001</v>
       </c>
       <c r="H27">
-        <v>9638</v>
+        <v>7474.335</v>
       </c>
       <c r="I27">
-        <v>201.9</v>
+        <v>180.465</v>
       </c>
       <c r="J27">
-        <v>2134.4</v>
+        <v>399.94400000000002</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1582.6</v>
+        <v>749.22900000000004</v>
       </c>
       <c r="O27">
-        <v>4619.6000000000004</v>
+        <v>1276.6500000000001</v>
       </c>
       <c r="P27">
-        <v>2134.4</v>
+        <v>399.94400000000002</v>
       </c>
       <c r="Q27">
-        <v>410.1</v>
+        <v>441.50599999999997</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>5099</v>
       </c>
       <c r="T27">
-        <v>5018.3999999999996</v>
+        <v>6197.6850000000004</v>
       </c>
       <c r="U27">
-        <v>2242</v>
+        <v>2037.8389999999999</v>
       </c>
       <c r="V27">
-        <v>546.6</v>
+        <v>151.465</v>
       </c>
       <c r="W27">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-134</v>
+        <v>-12.989000000000001</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>22.4</v>
+        <v>333.185</v>
       </c>
       <c r="AA27">
-        <v>108.8</v>
+        <v>66.647000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>179.8</v>
+        <v>86.18</v>
       </c>
       <c r="D28">
-        <v>1308.9000000000001</v>
+        <v>664.92200000000003</v>
       </c>
       <c r="E28">
-        <v>750.4</v>
+        <v>258.83800000000002</v>
       </c>
       <c r="F28">
-        <v>801.9</v>
+        <v>444.14800000000002</v>
       </c>
       <c r="G28">
-        <v>4145.1000000000004</v>
+        <v>1670.2860000000001</v>
       </c>
       <c r="H28">
-        <v>9752.9</v>
+        <v>6116.65</v>
       </c>
       <c r="I28">
-        <v>210.7</v>
+        <v>176.66900000000001</v>
       </c>
       <c r="J28">
-        <v>2135</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1672.8</v>
+        <v>1202.739</v>
       </c>
       <c r="O28">
-        <v>4666.7</v>
+        <v>1316.1659999999999</v>
       </c>
       <c r="P28">
-        <v>2135</v>
+        <v>399.94400000000002</v>
       </c>
       <c r="Q28">
-        <v>150.5</v>
+        <v>-1177.769</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>5435</v>
       </c>
       <c r="T28">
-        <v>5086.2</v>
+        <v>4800.4840000000004</v>
       </c>
       <c r="U28">
-        <v>2392.5</v>
+        <v>860.07</v>
       </c>
       <c r="V28">
-        <v>298.7</v>
+        <v>199.27500000000001</v>
       </c>
       <c r="W28">
-        <v>-37.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-161.6</v>
+        <v>-1516.8109999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-31.6</v>
+        <v>182.44499999999999</v>
       </c>
       <c r="AA28">
-        <v>179.8</v>
+        <v>86.18</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>165.7</v>
+        <v>85.099000000000004</v>
       </c>
       <c r="D29">
-        <v>1257.8</v>
+        <v>735.048</v>
       </c>
       <c r="E29">
-        <v>724.3</v>
+        <v>279.52999999999997</v>
       </c>
       <c r="F29">
-        <v>772.4</v>
+        <v>502.762</v>
       </c>
       <c r="G29">
-        <v>4283.3</v>
+        <v>2104.9169999999999</v>
       </c>
       <c r="H29">
-        <v>9744.2999999999993</v>
+        <v>6503.8019999999997</v>
       </c>
       <c r="I29">
-        <v>205.4</v>
+        <v>205.67099999999999</v>
       </c>
       <c r="J29">
-        <v>2135.6999999999998</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1585.3</v>
+        <v>1232.22</v>
       </c>
       <c r="O29">
-        <v>4586.2</v>
+        <v>1344.029</v>
       </c>
       <c r="P29">
-        <v>2135.6999999999998</v>
+        <v>399.76400000000001</v>
       </c>
       <c r="Q29">
-        <v>-23.3</v>
+        <v>489.20699999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>5661</v>
       </c>
       <c r="T29">
-        <v>5158.1000000000004</v>
+        <v>5159.7730000000001</v>
       </c>
       <c r="U29">
-        <v>2363.6999999999998</v>
+        <v>1349.277</v>
       </c>
       <c r="V29">
-        <v>201.4</v>
+        <v>191.42500000000001</v>
       </c>
       <c r="W29">
-        <v>-37.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-149</v>
+        <v>230.97399999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-19.3</v>
+        <v>112.709</v>
       </c>
       <c r="AA29">
-        <v>165.7</v>
+        <v>85.099000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-148.1</v>
+        <v>122.904</v>
       </c>
       <c r="D30">
-        <v>1239.5</v>
+        <v>809.18200000000002</v>
       </c>
       <c r="E30">
-        <v>852</v>
+        <v>379.75900000000001</v>
       </c>
       <c r="F30">
-        <v>751.2</v>
+        <v>546.71299999999997</v>
       </c>
       <c r="G30">
-        <v>4184.5</v>
+        <v>2555.1149999999998</v>
       </c>
       <c r="H30">
-        <v>9833.7999999999993</v>
+        <v>6885.4059999999999</v>
       </c>
       <c r="I30">
-        <v>217.6</v>
+        <v>219.101</v>
       </c>
       <c r="J30">
-        <v>2136.3000000000002</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,161 +3216,161 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1738.2</v>
+        <v>1379.8430000000001</v>
       </c>
       <c r="O30">
-        <v>5152.8999999999996</v>
+        <v>1531.546</v>
       </c>
       <c r="P30">
-        <v>2136.3000000000002</v>
+        <v>399.49599999999998</v>
       </c>
       <c r="Q30">
-        <v>-358.8</v>
+        <v>366.83300000000003</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>9381</v>
+        <v>5879</v>
       </c>
       <c r="T30">
-        <v>4680.8999999999996</v>
+        <v>5353.86</v>
       </c>
       <c r="U30">
-        <v>2006.5</v>
+        <v>1716.11</v>
       </c>
       <c r="V30">
-        <v>212.6</v>
+        <v>244.358</v>
       </c>
       <c r="W30">
-        <v>-36.9</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-350.2</v>
+        <v>60.329000000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-171.3</v>
+        <v>98.052000000000007</v>
       </c>
       <c r="AA30">
-        <v>-148.1</v>
+        <v>122.904</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>34.4</v>
+        <v>110.355</v>
       </c>
       <c r="D31">
-        <v>1082.5999999999999</v>
+        <v>822.88699999999994</v>
       </c>
       <c r="E31">
-        <v>679.9</v>
+        <v>369.05700000000002</v>
       </c>
       <c r="F31">
-        <v>618.4</v>
+        <v>558.05100000000004</v>
       </c>
       <c r="G31">
-        <v>3920.7</v>
+        <v>2766.7620000000002</v>
       </c>
       <c r="H31">
-        <v>9078.5</v>
+        <v>7059.1859999999997</v>
       </c>
       <c r="I31">
-        <v>189.2</v>
+        <v>212.392</v>
       </c>
       <c r="J31">
-        <v>1787.7</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>-16.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1830</v>
+        <v>1401.731</v>
       </c>
       <c r="O31">
-        <v>4753.8</v>
+        <v>1576.895</v>
       </c>
       <c r="P31">
-        <v>2137</v>
+        <v>399.44</v>
       </c>
       <c r="Q31">
-        <v>585.9</v>
+        <v>321.30399999999997</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>6111</v>
       </c>
       <c r="T31">
-        <v>4324.7</v>
+        <v>5482.2910000000002</v>
       </c>
       <c r="U31">
-        <v>2614.1999999999998</v>
+        <v>2037.414</v>
       </c>
       <c r="V31">
-        <v>271.10000000000002</v>
+        <v>254.90199999999999</v>
       </c>
       <c r="W31">
-        <v>-62.1</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-803.6</v>
+        <v>-9.6449999999999996</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>1176.5999999999999</v>
+        <v>108.93899999999999</v>
       </c>
       <c r="AA31">
-        <v>34.4</v>
+        <v>110.355</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>116.5</v>
+        <v>120.41</v>
       </c>
       <c r="D32">
-        <v>1204.0999999999999</v>
+        <v>879.03399999999999</v>
       </c>
       <c r="E32">
-        <v>702.2</v>
+        <v>423.791</v>
       </c>
       <c r="F32">
-        <v>700.9</v>
+        <v>589.75300000000004</v>
       </c>
       <c r="G32">
-        <v>4104.6000000000004</v>
+        <v>2943.7840000000001</v>
       </c>
       <c r="H32">
-        <v>9121</v>
+        <v>7259.9939999999997</v>
       </c>
       <c r="I32">
-        <v>183.2</v>
+        <v>233.70699999999999</v>
       </c>
       <c r="J32">
-        <v>1788.2</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1808.5</v>
+        <v>1028.0709999999999</v>
       </c>
       <c r="O32">
-        <v>4703.3</v>
+        <v>1254.674</v>
       </c>
       <c r="P32">
-        <v>2137.6999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>67</v>
+        <v>2.9910000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>6531</v>
       </c>
       <c r="T32">
-        <v>4417.7</v>
+        <v>6005.32</v>
       </c>
       <c r="U32">
-        <v>2690.4</v>
+        <v>2040.405</v>
       </c>
       <c r="V32">
-        <v>170.3</v>
+        <v>200.542</v>
       </c>
       <c r="W32">
-        <v>-62.8</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-62.8</v>
+        <v>-25.898</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>17.5</v>
+        <v>-121.133</v>
       </c>
       <c r="AA32">
-        <v>116.5</v>
+        <v>120.41</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>223.8</v>
+        <v>148.50800000000001</v>
       </c>
       <c r="D33">
-        <v>1179.8</v>
+        <v>946.96199999999999</v>
       </c>
       <c r="E33">
-        <v>648.29999999999995</v>
+        <v>368.60399999999998</v>
       </c>
       <c r="F33">
-        <v>711</v>
+        <v>639.38300000000004</v>
       </c>
       <c r="G33">
-        <v>4290.7</v>
+        <v>2602.2910000000002</v>
       </c>
       <c r="H33">
-        <v>9100.2999999999993</v>
+        <v>6991.6279999999997</v>
       </c>
       <c r="I33">
-        <v>184.7</v>
+        <v>231.12899999999999</v>
       </c>
       <c r="J33">
-        <v>1788.6</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1740.5</v>
+        <v>982.745</v>
       </c>
       <c r="O33">
-        <v>4449.3999999999996</v>
+        <v>1214.8409999999999</v>
       </c>
       <c r="P33">
-        <v>2138.3000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>-189.2</v>
+        <v>-261.90800000000002</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>6830</v>
       </c>
       <c r="T33">
-        <v>4650.8999999999996</v>
+        <v>5776.7870000000003</v>
       </c>
       <c r="U33">
-        <v>2501.6999999999998</v>
+        <v>1778.4970000000001</v>
       </c>
       <c r="V33">
-        <v>207.3</v>
+        <v>204.624</v>
       </c>
       <c r="W33">
-        <v>-62.1</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-37.700000000000003</v>
+        <v>-370.66800000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-321.7</v>
+        <v>-49.445</v>
       </c>
       <c r="AA33">
-        <v>223.8</v>
+        <v>148.50800000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>192.2</v>
+        <v>132.476</v>
       </c>
       <c r="D34">
-        <v>1181</v>
+        <v>923.49300000000005</v>
       </c>
       <c r="E34">
-        <v>754.6</v>
+        <v>429.97</v>
       </c>
       <c r="F34">
-        <v>710.9</v>
+        <v>619.22299999999996</v>
       </c>
       <c r="G34">
-        <v>4581.8</v>
+        <v>2816.2060000000001</v>
       </c>
       <c r="H34">
-        <v>9363.2999999999993</v>
+        <v>7187.3410000000003</v>
       </c>
       <c r="I34">
-        <v>208.8</v>
+        <v>249.85400000000001</v>
       </c>
       <c r="J34">
-        <v>1789.1</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,161 +3548,161 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1842.5</v>
+        <v>1056.6099999999999</v>
       </c>
       <c r="O34">
-        <v>4540.1000000000004</v>
+        <v>1285.9359999999999</v>
       </c>
       <c r="P34">
-        <v>2240</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>-17</v>
+        <v>240.58699999999999</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>9283</v>
+        <v>7014</v>
       </c>
       <c r="T34">
-        <v>4823.2</v>
+        <v>5901.4049999999997</v>
       </c>
       <c r="U34">
-        <v>2489</v>
+        <v>2019.0840000000001</v>
       </c>
       <c r="V34">
-        <v>212.4</v>
+        <v>215.11099999999999</v>
       </c>
       <c r="W34">
-        <v>-62.3</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-64.5</v>
+        <v>-16.181999999999999</v>
       </c>
       <c r="Y34">
-        <v>87.9</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>-101.1</v>
+        <v>84.525000000000006</v>
       </c>
       <c r="AA34">
-        <v>192.2</v>
+        <v>132.476</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>31.1</v>
+        <v>-4.46</v>
       </c>
       <c r="D35">
-        <v>1001.7</v>
+        <v>764.18299999999999</v>
       </c>
       <c r="E35">
-        <v>645.4</v>
+        <v>361.95800000000003</v>
       </c>
       <c r="F35">
-        <v>582.29999999999995</v>
+        <v>502.29199999999997</v>
       </c>
       <c r="G35">
-        <v>4309.6000000000004</v>
+        <v>2757.8150000000001</v>
       </c>
       <c r="H35">
-        <v>9137.9</v>
+        <v>7066.1440000000002</v>
       </c>
       <c r="I35">
-        <v>219.1</v>
+        <v>215.70599999999999</v>
       </c>
       <c r="J35">
-        <v>1789.6</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-20.606000000000002</v>
       </c>
       <c r="M35">
-        <v>-350</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>1489.1</v>
+        <v>996.976</v>
       </c>
       <c r="O35">
-        <v>4286.7</v>
+        <v>1236.48</v>
       </c>
       <c r="P35">
-        <v>2003</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>-332.7</v>
+        <v>-14.101000000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>6975</v>
       </c>
       <c r="T35">
-        <v>4851.2</v>
+        <v>5829.6639999999998</v>
       </c>
       <c r="U35">
-        <v>2155.6</v>
+        <v>2004.9829999999999</v>
       </c>
       <c r="V35">
-        <v>159.4</v>
+        <v>163.86500000000001</v>
       </c>
       <c r="W35">
-        <v>-66.2</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-389.6</v>
+        <v>-114.714</v>
       </c>
       <c r="Y35">
-        <v>176.7</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-76.2</v>
+        <v>-29.026</v>
       </c>
       <c r="AA35">
-        <v>31.1</v>
+        <v>-4.46</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>46.2</v>
+        <v>14.769</v>
       </c>
       <c r="D36">
-        <v>1102.5</v>
+        <v>786.36300000000006</v>
       </c>
       <c r="E36">
-        <v>659.4</v>
+        <v>429.13</v>
       </c>
       <c r="F36">
-        <v>636.79999999999995</v>
+        <v>506.38200000000001</v>
       </c>
       <c r="G36">
-        <v>3758.6</v>
+        <v>2595.1489999999999</v>
       </c>
       <c r="H36">
-        <v>8903.2999999999993</v>
+        <v>7225.7619999999997</v>
       </c>
       <c r="I36">
-        <v>183.3</v>
+        <v>236.529</v>
       </c>
       <c r="J36">
-        <v>1490.5</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1766.2</v>
+        <v>1061.845</v>
       </c>
       <c r="O36">
-        <v>4312.1000000000004</v>
+        <v>1408.933</v>
       </c>
       <c r="P36">
-        <v>1997.3</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>-729.7</v>
+        <v>-450.83199999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>7020</v>
       </c>
       <c r="T36">
-        <v>4591.2</v>
+        <v>5816.8289999999997</v>
       </c>
       <c r="U36">
-        <v>1381.3</v>
+        <v>1554.1510000000001</v>
       </c>
       <c r="V36">
-        <v>88.8</v>
+        <v>148.68100000000001</v>
       </c>
       <c r="W36">
-        <v>-65.5</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-366.2</v>
+        <v>-16.295999999999999</v>
       </c>
       <c r="Y36">
-        <v>167.5</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-154.6</v>
+        <v>-536.74400000000003</v>
       </c>
       <c r="AA36">
-        <v>46.2</v>
+        <v>14.769</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>99.3</v>
+        <v>83.786000000000001</v>
       </c>
       <c r="D37">
-        <v>1133.0999999999999</v>
+        <v>823.91200000000003</v>
       </c>
       <c r="E37">
-        <v>635.79999999999995</v>
+        <v>373.24099999999999</v>
       </c>
       <c r="F37">
-        <v>678.4</v>
+        <v>543.28300000000002</v>
       </c>
       <c r="G37">
-        <v>3187.5</v>
+        <v>2653.7710000000002</v>
       </c>
       <c r="H37">
-        <v>8753.6</v>
+        <v>7414.4470000000001</v>
       </c>
       <c r="I37">
-        <v>229</v>
+        <v>243.58500000000001</v>
       </c>
       <c r="J37">
-        <v>1687.8</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1422.9</v>
+        <v>1083.269</v>
       </c>
       <c r="O37">
-        <v>4111.2</v>
+        <v>1457.0250000000001</v>
       </c>
       <c r="P37">
-        <v>1891.7</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>-177.4</v>
+        <v>64.438999999999993</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>7034</v>
       </c>
       <c r="T37">
-        <v>4642.3999999999996</v>
+        <v>5957.4219999999996</v>
       </c>
       <c r="U37">
-        <v>1204.8</v>
+        <v>1618.59</v>
       </c>
       <c r="V37">
-        <v>185</v>
+        <v>223.946</v>
       </c>
       <c r="W37">
-        <v>-64.7</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-209.5</v>
+        <v>24.030999999999999</v>
       </c>
       <c r="Y37">
-        <v>163.5</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-118.9</v>
+        <v>-139.751</v>
       </c>
       <c r="AA37">
-        <v>99.3</v>
+        <v>83.786000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>168.4</v>
+        <v>22.904</v>
       </c>
       <c r="D38">
-        <v>1208.0999999999999</v>
+        <v>941.45399999999995</v>
       </c>
       <c r="E38">
-        <v>879.7</v>
+        <v>458.65199999999999</v>
       </c>
       <c r="F38">
-        <v>719.3</v>
+        <v>631.24599999999998</v>
       </c>
       <c r="G38">
-        <v>3209.8</v>
+        <v>2878.9589999999998</v>
       </c>
       <c r="H38">
-        <v>8837.7000000000007</v>
+        <v>7590.2629999999999</v>
       </c>
       <c r="I38">
-        <v>219.5</v>
+        <v>242.59100000000001</v>
       </c>
       <c r="J38">
-        <v>1687</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1543.9</v>
+        <v>1375.7850000000001</v>
       </c>
       <c r="O38">
-        <v>4227.1000000000004</v>
+        <v>1765.498</v>
       </c>
       <c r="P38">
-        <v>1845.1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>10.5</v>
+        <v>-13.867000000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>9419</v>
+        <v>7231</v>
       </c>
       <c r="T38">
-        <v>4610.6000000000004</v>
+        <v>5824.7650000000003</v>
       </c>
       <c r="U38">
-        <v>1215.8</v>
+        <v>1604.723</v>
       </c>
       <c r="V38">
-        <v>95.7</v>
+        <v>259.60500000000002</v>
       </c>
       <c r="W38">
-        <v>-63.7</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-263.5</v>
+        <v>-155.179</v>
       </c>
       <c r="Y38">
-        <v>158.1</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>209.3</v>
+        <v>-78.402000000000001</v>
       </c>
       <c r="AA38">
-        <v>168.4</v>
+        <v>22.904</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>20.399999999999999</v>
+        <v>163.11500000000001</v>
       </c>
       <c r="D39">
-        <v>998</v>
+        <v>912.61800000000005</v>
       </c>
       <c r="E39">
-        <v>675.1</v>
+        <v>402.93400000000003</v>
       </c>
       <c r="F39">
-        <v>579.29999999999995</v>
+        <v>612.02099999999996</v>
       </c>
       <c r="G39">
-        <v>2972.7</v>
+        <v>2996.98</v>
       </c>
       <c r="H39">
-        <v>8609.5</v>
+        <v>7678.7349999999997</v>
       </c>
       <c r="I39">
-        <v>236.4</v>
+        <v>230.33</v>
       </c>
       <c r="J39">
-        <v>1712.9</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1536.5</v>
+        <v>1255.152</v>
       </c>
       <c r="O39">
-        <v>4218.8</v>
+        <v>1557.412</v>
       </c>
       <c r="P39">
-        <v>1866.5</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>183.3</v>
+        <v>119.226</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>7453</v>
       </c>
       <c r="T39">
-        <v>4390.7</v>
+        <v>6121.3230000000003</v>
       </c>
       <c r="U39">
-        <v>1398.6</v>
+        <v>1723.9490000000001</v>
       </c>
       <c r="V39">
-        <v>272.2</v>
+        <v>88.546000000000006</v>
       </c>
       <c r="W39">
-        <v>-65.5</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-241.6</v>
+        <v>63.296999999999997</v>
       </c>
       <c r="Y39">
-        <v>153.6</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>190.9</v>
+        <v>6.74</v>
       </c>
       <c r="AA39">
-        <v>20.399999999999999</v>
+        <v>163.11500000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>61.2</v>
+        <v>130.511</v>
       </c>
       <c r="D40">
-        <v>1086.3</v>
+        <v>978.3</v>
       </c>
       <c r="E40">
-        <v>754.7</v>
+        <v>391.54500000000002</v>
       </c>
       <c r="F40">
-        <v>619.6</v>
+        <v>659.93799999999999</v>
       </c>
       <c r="G40">
-        <v>3001.2</v>
+        <v>2899.306</v>
       </c>
       <c r="H40">
-        <v>8741.5</v>
+        <v>7744.3270000000002</v>
       </c>
       <c r="I40">
-        <v>238</v>
+        <v>243.22800000000001</v>
       </c>
       <c r="J40">
-        <v>1722.7</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1596.3</v>
+        <v>1221.019</v>
       </c>
       <c r="O40">
-        <v>4277.2</v>
+        <v>1572.5219999999999</v>
       </c>
       <c r="P40">
-        <v>1884.8</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>61.4</v>
+        <v>-63.863</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>7732</v>
       </c>
       <c r="T40">
-        <v>4464.3</v>
+        <v>6171.8050000000003</v>
       </c>
       <c r="U40">
-        <v>1460.3</v>
+        <v>1660.086</v>
       </c>
       <c r="V40">
-        <v>97.6</v>
+        <v>221.34299999999999</v>
       </c>
       <c r="W40">
-        <v>-66.3</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-63.1</v>
+        <v>-135.98699999999999</v>
       </c>
       <c r="Y40">
-        <v>162.1</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>42.6</v>
+        <v>-28.908000000000001</v>
       </c>
       <c r="AA40">
-        <v>61.2</v>
+        <v>130.511</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>145.4</v>
+        <v>134.54300000000001</v>
       </c>
       <c r="D41">
-        <v>1138.2</v>
+        <v>1012.407</v>
       </c>
       <c r="E41">
-        <v>754</v>
+        <v>473.95299999999997</v>
       </c>
       <c r="F41">
-        <v>657.8</v>
+        <v>677.78700000000003</v>
       </c>
       <c r="G41">
-        <v>3038.5</v>
+        <v>2866.8110000000001</v>
       </c>
       <c r="H41">
-        <v>8694.7000000000007</v>
+        <v>7890.8969999999999</v>
       </c>
       <c r="I41">
-        <v>269.60000000000002</v>
+        <v>251.43100000000001</v>
       </c>
       <c r="J41">
-        <v>1714.1</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1501.6</v>
+        <v>1240.7670000000001</v>
       </c>
       <c r="O41">
-        <v>4133.8999999999996</v>
+        <v>1573.998</v>
       </c>
       <c r="P41">
-        <v>1873.3</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>-119.4</v>
+        <v>-199.172</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>8104</v>
       </c>
       <c r="T41">
-        <v>4560.8</v>
+        <v>6316.8990000000003</v>
       </c>
       <c r="U41">
-        <v>1341.5</v>
+        <v>1460.914</v>
       </c>
       <c r="V41">
-        <v>116.4</v>
+        <v>131.411</v>
       </c>
       <c r="W41">
-        <v>-66.2</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-139.69999999999999</v>
+        <v>-45.289000000000001</v>
       </c>
       <c r="Y41">
-        <v>159.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-124.9</v>
+        <v>-161.71600000000001</v>
       </c>
       <c r="AA41">
-        <v>145.4</v>
+        <v>134.54300000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>190.233</v>
+      </c>
+      <c r="D42">
+        <v>1189.941</v>
+      </c>
+      <c r="E42">
+        <v>596.62199999999996</v>
+      </c>
+      <c r="F42">
+        <v>792.00099999999998</v>
+      </c>
+      <c r="G42">
+        <v>3214.37</v>
+      </c>
+      <c r="H42">
+        <v>8467.8510000000006</v>
+      </c>
+      <c r="I42">
+        <v>292.27</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1471.9760000000001</v>
+      </c>
+      <c r="O42">
+        <v>1859.0509999999999</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>350.97300000000001</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>8772</v>
+      </c>
+      <c r="T42">
+        <v>6608.8</v>
+      </c>
+      <c r="U42">
+        <v>1811.8869999999999</v>
+      </c>
+      <c r="V42">
+        <v>371.03500000000003</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>45.558</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>223.614</v>
+      </c>
+      <c r="AA42">
+        <v>190.233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>129.75</v>
+      </c>
+      <c r="D43">
+        <v>1101.6120000000001</v>
+      </c>
+      <c r="E43">
+        <v>471.012</v>
+      </c>
+      <c r="F43">
+        <v>736.88400000000001</v>
+      </c>
+      <c r="G43">
+        <v>4304.4269999999997</v>
+      </c>
+      <c r="H43">
+        <v>9693.7000000000007</v>
+      </c>
+      <c r="I43">
+        <v>228.27500000000001</v>
+      </c>
+      <c r="J43">
+        <v>998.923</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1403.7439999999999</v>
+      </c>
+      <c r="O43">
+        <v>2796.8510000000001</v>
+      </c>
+      <c r="P43">
+        <v>998.923</v>
+      </c>
+      <c r="Q43">
+        <v>1132.4960000000001</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>8403</v>
+      </c>
+      <c r="T43">
+        <v>6896.8490000000002</v>
+      </c>
+      <c r="U43">
+        <v>2944.3829999999998</v>
+      </c>
+      <c r="V43">
+        <v>239.65</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>1102.07</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-126.679</v>
+      </c>
+      <c r="AA43">
+        <v>129.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>115.56</v>
+      </c>
+      <c r="D44">
+        <v>1120.5440000000001</v>
+      </c>
+      <c r="E44">
+        <v>488.03699999999998</v>
+      </c>
+      <c r="F44">
+        <v>723.68100000000004</v>
+      </c>
+      <c r="G44">
+        <v>4285.9430000000002</v>
+      </c>
+      <c r="H44">
+        <v>9793.1170000000002</v>
+      </c>
+      <c r="I44">
+        <v>250.06800000000001</v>
+      </c>
+      <c r="J44">
+        <v>998.96</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1429.348</v>
+      </c>
+      <c r="O44">
+        <v>2831.1869999999999</v>
+      </c>
+      <c r="P44">
+        <v>998.96</v>
+      </c>
+      <c r="Q44">
+        <v>-106.31699999999999</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>8607</v>
+      </c>
+      <c r="T44">
+        <v>6961.93</v>
+      </c>
+      <c r="U44">
+        <v>2838.0659999999998</v>
+      </c>
+      <c r="V44">
+        <v>318.30700000000002</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-103.416</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-255.50299999999999</v>
+      </c>
+      <c r="AA44">
+        <v>115.56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>83.662999999999997</v>
+      </c>
+      <c r="D45">
+        <v>1105.796</v>
+      </c>
+      <c r="E45">
+        <v>444</v>
+      </c>
+      <c r="F45">
+        <v>711.60400000000004</v>
+      </c>
+      <c r="G45">
+        <v>4131.59</v>
+      </c>
+      <c r="H45">
+        <v>9707.0920000000006</v>
+      </c>
+      <c r="I45">
+        <v>262.59399999999999</v>
+      </c>
+      <c r="J45">
+        <v>998.99699999999996</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1366.68</v>
+      </c>
+      <c r="O45">
+        <v>2768.9079999999999</v>
+      </c>
+      <c r="P45">
+        <v>998.99699999999996</v>
+      </c>
+      <c r="Q45">
+        <v>-115.617</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>8510</v>
+      </c>
+      <c r="T45">
+        <v>6938.1840000000002</v>
+      </c>
+      <c r="U45">
+        <v>2722.4490000000001</v>
+      </c>
+      <c r="V45">
+        <v>185.16399999999999</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-177.71700000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-51.183</v>
+      </c>
+      <c r="AA45">
+        <v>83.662999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>96.126999999999995</v>
+      </c>
+      <c r="D46">
+        <v>1120.748</v>
+      </c>
+      <c r="E46">
+        <v>577.4</v>
+      </c>
+      <c r="F46">
+        <v>698.94899999999996</v>
+      </c>
+      <c r="G46">
+        <v>4439.7</v>
+      </c>
+      <c r="H46">
+        <v>9983.7999999999993</v>
+      </c>
+      <c r="I46">
+        <v>324.89999999999998</v>
+      </c>
+      <c r="J46">
+        <v>999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1466.7</v>
+      </c>
+      <c r="O46">
+        <v>2894.1</v>
+      </c>
+      <c r="P46">
+        <v>999</v>
+      </c>
+      <c r="Q46">
+        <v>187.93799999999999</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>9129</v>
+      </c>
+      <c r="T46">
+        <v>7089.7</v>
+      </c>
+      <c r="U46">
+        <v>2910.4</v>
+      </c>
+      <c r="V46">
+        <v>243.57900000000001</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-1.9370000000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>24.364999999999998</v>
+      </c>
+      <c r="AA46">
+        <v>96.126999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>16.3</v>
+      </c>
+      <c r="D47">
+        <v>1032.5</v>
+      </c>
+      <c r="E47">
+        <v>450.98700000000002</v>
+      </c>
+      <c r="F47">
+        <v>634.1</v>
+      </c>
+      <c r="G47">
+        <v>4231.018</v>
+      </c>
+      <c r="H47">
+        <v>9945.0229999999992</v>
+      </c>
+      <c r="I47">
+        <v>195.42</v>
+      </c>
+      <c r="J47">
+        <v>999.07100000000003</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1360.7560000000001</v>
+      </c>
+      <c r="O47">
+        <v>2772.0639999999999</v>
+      </c>
+      <c r="P47">
+        <v>999.07100000000003</v>
+      </c>
+      <c r="Q47">
+        <v>2.7</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>7172.9589999999998</v>
+      </c>
+      <c r="U47">
+        <v>2913.0949999999998</v>
+      </c>
+      <c r="V47">
+        <v>102.3</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-6.3</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>79.2</v>
+      </c>
+      <c r="AA47">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>57.7</v>
+      </c>
+      <c r="D48">
+        <v>1073.8</v>
+      </c>
+      <c r="E48">
+        <v>406.75599999999997</v>
+      </c>
+      <c r="F48">
+        <v>667.9</v>
+      </c>
+      <c r="G48">
+        <v>4229.7560000000003</v>
+      </c>
+      <c r="H48">
+        <v>10046.281000000001</v>
+      </c>
+      <c r="I48">
+        <v>199.56299999999999</v>
+      </c>
+      <c r="J48">
+        <v>999.10799999999995</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1453.2639999999999</v>
+      </c>
+      <c r="O48">
+        <v>2837.3580000000002</v>
+      </c>
+      <c r="P48">
+        <v>999.10799999999995</v>
+      </c>
+      <c r="Q48">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>7208.9229999999998</v>
+      </c>
+      <c r="U48">
+        <v>3044.31</v>
+      </c>
+      <c r="V48">
+        <v>212.1</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-80.5</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>87.8</v>
+      </c>
+      <c r="AA48">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>16.8</v>
+      </c>
+      <c r="D49">
+        <v>1118.3</v>
+      </c>
+      <c r="E49">
+        <v>397.08199999999999</v>
+      </c>
+      <c r="F49">
+        <v>726.2</v>
+      </c>
+      <c r="G49">
+        <v>3942.299</v>
+      </c>
+      <c r="H49">
+        <v>9960.5939999999991</v>
+      </c>
+      <c r="I49">
+        <v>224.24199999999999</v>
+      </c>
+      <c r="J49">
+        <v>999.14499999999998</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1501.8009999999999</v>
+      </c>
+      <c r="O49">
+        <v>2880.7139999999999</v>
+      </c>
+      <c r="P49">
+        <v>999.14499999999998</v>
+      </c>
+      <c r="Q49">
+        <v>-336.4</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>7079.88</v>
+      </c>
+      <c r="U49">
+        <v>2707.94</v>
+      </c>
+      <c r="V49">
+        <v>173.2</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-235.5</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-101.4</v>
+      </c>
+      <c r="AA49">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>95.7</v>
+      </c>
+      <c r="D50">
+        <v>1140.8</v>
+      </c>
+      <c r="E50">
+        <v>438.4</v>
+      </c>
+      <c r="F50">
+        <v>733.5</v>
+      </c>
+      <c r="G50">
+        <v>3600.7</v>
+      </c>
+      <c r="H50">
+        <v>9832.1</v>
+      </c>
+      <c r="I50">
+        <v>209.3</v>
+      </c>
+      <c r="J50">
+        <v>999.2</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1422</v>
+      </c>
+      <c r="O50">
+        <v>2832.6</v>
+      </c>
+      <c r="P50">
+        <v>999.2</v>
+      </c>
+      <c r="Q50">
+        <v>-300.10000000000002</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>9234</v>
+      </c>
+      <c r="T50">
+        <v>6999.5</v>
+      </c>
+      <c r="U50">
+        <v>2407.8000000000002</v>
+      </c>
+      <c r="V50">
+        <v>154.80000000000001</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-226</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-88</v>
+      </c>
+      <c r="AA50">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>91</v>
+      </c>
+      <c r="D51">
+        <v>1059.2</v>
+      </c>
+      <c r="E51">
+        <v>532.6</v>
+      </c>
+      <c r="F51">
+        <v>671.5</v>
+      </c>
+      <c r="G51">
+        <v>3540</v>
+      </c>
+      <c r="H51">
+        <v>9830.4</v>
+      </c>
+      <c r="I51">
+        <v>223.8</v>
+      </c>
+      <c r="J51">
+        <v>999.2</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="M51">
+        <v>-1.4</v>
+      </c>
+      <c r="N51">
+        <v>1423.7</v>
+      </c>
+      <c r="O51">
+        <v>2774</v>
+      </c>
+      <c r="P51">
+        <v>999.2</v>
+      </c>
+      <c r="Q51">
+        <v>-364.1</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>7056.4</v>
+      </c>
+      <c r="U51">
+        <v>2043.7</v>
+      </c>
+      <c r="V51">
+        <v>-8.9</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-70.099999999999994</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-203.6</v>
+      </c>
+      <c r="AA51">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>97.9</v>
+      </c>
+      <c r="D52">
+        <v>1150.7</v>
+      </c>
+      <c r="E52">
+        <v>509.1</v>
+      </c>
+      <c r="F52">
+        <v>721.3</v>
+      </c>
+      <c r="G52">
+        <v>3654.1</v>
+      </c>
+      <c r="H52">
+        <v>10013.700000000001</v>
+      </c>
+      <c r="I52">
+        <v>206.4</v>
+      </c>
+      <c r="J52">
+        <v>999.3</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1422.8</v>
+      </c>
+      <c r="O52">
+        <v>2896.1</v>
+      </c>
+      <c r="P52">
+        <v>999.3</v>
+      </c>
+      <c r="Q52">
+        <v>206.2</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>7117.6</v>
+      </c>
+      <c r="U52">
+        <v>2249.9</v>
+      </c>
+      <c r="V52">
+        <v>284.39999999999998</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-62.5</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="AA52">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>99.1</v>
+      </c>
+      <c r="D53">
+        <v>1185.5999999999999</v>
+      </c>
+      <c r="E53">
+        <v>549.29999999999995</v>
+      </c>
+      <c r="F53">
+        <v>752.6</v>
+      </c>
+      <c r="G53">
+        <v>3680.4</v>
+      </c>
+      <c r="H53">
+        <v>10197.700000000001</v>
+      </c>
+      <c r="I53">
+        <v>205.6</v>
+      </c>
+      <c r="J53">
+        <v>999.3</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1400.6</v>
+      </c>
+      <c r="O53">
+        <v>2886</v>
+      </c>
+      <c r="P53">
+        <v>999.3</v>
+      </c>
+      <c r="Q53">
+        <v>21.6</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>7311.7</v>
+      </c>
+      <c r="U53">
+        <v>2271.5</v>
+      </c>
+      <c r="V53">
+        <v>176.4</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-33.9</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-80.2</v>
+      </c>
+      <c r="AA53">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="D54">
+        <v>1273.5999999999999</v>
+      </c>
+      <c r="E54">
+        <v>578.29999999999995</v>
+      </c>
+      <c r="F54">
+        <v>804.4</v>
+      </c>
+      <c r="G54">
+        <v>3703.9</v>
+      </c>
+      <c r="H54">
+        <v>10326</v>
+      </c>
+      <c r="I54">
+        <v>200.4</v>
+      </c>
+      <c r="J54">
+        <v>999.3</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1441.4</v>
+      </c>
+      <c r="O54">
+        <v>3023.8</v>
+      </c>
+      <c r="P54">
+        <v>999.3</v>
+      </c>
+      <c r="Q54">
+        <v>12.5</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>9483</v>
+      </c>
+      <c r="T54">
+        <v>7302.2</v>
+      </c>
+      <c r="U54">
+        <v>2284</v>
+      </c>
+      <c r="V54">
+        <v>394</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-235.2</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-91.1</v>
+      </c>
+      <c r="AA54">
+        <v>151.80000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>110.6</v>
+      </c>
+      <c r="D55">
+        <v>1170.0999999999999</v>
+      </c>
+      <c r="E55">
+        <v>597.9</v>
+      </c>
+      <c r="F55">
+        <v>728.5</v>
+      </c>
+      <c r="G55">
+        <v>3879.8</v>
+      </c>
+      <c r="H55">
+        <v>9723.6</v>
+      </c>
+      <c r="I55">
+        <v>222.2</v>
+      </c>
+      <c r="J55">
+        <v>1348.9</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-0.4</v>
+      </c>
+      <c r="N55">
+        <v>1446.3</v>
+      </c>
+      <c r="O55">
+        <v>3414.1</v>
+      </c>
+      <c r="P55">
+        <v>1348.9</v>
+      </c>
+      <c r="Q55">
+        <v>295.39999999999998</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>6309.5</v>
+      </c>
+      <c r="U55">
+        <v>2579.4</v>
+      </c>
+      <c r="V55">
+        <v>124.6</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-743.8</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>972.6</v>
+      </c>
+      <c r="AA55">
+        <v>110.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>221.1</v>
+      </c>
+      <c r="D56">
+        <v>1229.5</v>
+      </c>
+      <c r="E56">
+        <v>560.79999999999995</v>
+      </c>
+      <c r="F56">
+        <v>762</v>
+      </c>
+      <c r="G56">
+        <v>3497.7</v>
+      </c>
+      <c r="H56">
+        <v>10137.299999999999</v>
+      </c>
+      <c r="I56">
+        <v>246.3</v>
+      </c>
+      <c r="J56">
+        <v>1348.9</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1573.5</v>
+      </c>
+      <c r="O56">
+        <v>3525.8</v>
+      </c>
+      <c r="P56">
+        <v>1348.9</v>
+      </c>
+      <c r="Q56">
+        <v>-419.6</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>6611.5</v>
+      </c>
+      <c r="U56">
+        <v>2159.8000000000002</v>
+      </c>
+      <c r="V56">
+        <v>423.6</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>12.7</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-816.3</v>
+      </c>
+      <c r="AA56">
+        <v>221.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>103.6</v>
+      </c>
+      <c r="D57">
+        <v>1125.9000000000001</v>
+      </c>
+      <c r="E57">
+        <v>617</v>
+      </c>
+      <c r="F57">
+        <v>714.8</v>
+      </c>
+      <c r="G57">
+        <v>3063.3</v>
+      </c>
+      <c r="H57">
+        <v>9569</v>
+      </c>
+      <c r="I57">
+        <v>242.2</v>
+      </c>
+      <c r="J57">
+        <v>1348.9</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1449</v>
+      </c>
+      <c r="O57">
+        <v>3378.6</v>
+      </c>
+      <c r="P57">
+        <v>1348.9</v>
+      </c>
+      <c r="Q57">
+        <v>-543.9</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>6190.4</v>
+      </c>
+      <c r="U57">
+        <v>1615.9</v>
+      </c>
+      <c r="V57">
+        <v>-69.7</v>
+      </c>
+      <c r="W57">
+        <v>-43.8</v>
+      </c>
+      <c r="X57">
+        <v>-560.4</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>117.6</v>
+      </c>
+      <c r="AA57">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>-769.6</v>
+      </c>
+      <c r="D58">
+        <v>1101.5999999999999</v>
+      </c>
+      <c r="E58">
+        <v>598.9</v>
+      </c>
+      <c r="F58">
+        <v>694.4</v>
+      </c>
+      <c r="G58">
+        <v>2810.6</v>
+      </c>
+      <c r="H58">
+        <v>8281.4</v>
+      </c>
+      <c r="I58">
+        <v>234.6</v>
+      </c>
+      <c r="J58">
+        <v>1349</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1513.4</v>
+      </c>
+      <c r="O58">
+        <v>3362.3</v>
+      </c>
+      <c r="P58">
+        <v>1349</v>
+      </c>
+      <c r="Q58">
+        <v>23.7</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>8806</v>
+      </c>
+      <c r="T58">
+        <v>4919.1000000000004</v>
+      </c>
+      <c r="U58">
+        <v>1639.6</v>
+      </c>
+      <c r="V58">
+        <v>284.89999999999998</v>
+      </c>
+      <c r="W58">
+        <v>-42.2</v>
+      </c>
+      <c r="X58">
+        <v>-532.70000000000005</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>229.8</v>
+      </c>
+      <c r="AA58">
+        <v>-769.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>80.2</v>
+      </c>
+      <c r="D59">
+        <v>1067.4000000000001</v>
+      </c>
+      <c r="E59">
+        <v>507.6</v>
+      </c>
+      <c r="F59">
+        <v>657.3</v>
+      </c>
+      <c r="G59">
+        <v>3101.7</v>
+      </c>
+      <c r="H59">
+        <v>8666.6</v>
+      </c>
+      <c r="I59">
+        <v>223.6</v>
+      </c>
+      <c r="J59">
+        <v>1648.7</v>
+      </c>
+      <c r="K59">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1770.4</v>
+      </c>
+      <c r="O59">
+        <v>4049.5</v>
+      </c>
+      <c r="P59">
+        <v>1948.6</v>
+      </c>
+      <c r="Q59">
+        <v>171.2</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>4617.1000000000004</v>
+      </c>
+      <c r="U59">
+        <v>1810.8</v>
+      </c>
+      <c r="V59">
+        <v>219.3</v>
+      </c>
+      <c r="W59">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="X59">
+        <v>185.3</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-177.1</v>
+      </c>
+      <c r="AA59">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>158</v>
+      </c>
+      <c r="D60">
+        <v>1222.2</v>
+      </c>
+      <c r="E60">
+        <v>533</v>
+      </c>
+      <c r="F60">
+        <v>781.5</v>
+      </c>
+      <c r="G60">
+        <v>2726.9</v>
+      </c>
+      <c r="H60">
+        <v>8282.7999999999993</v>
+      </c>
+      <c r="I60">
+        <v>222.6</v>
+      </c>
+      <c r="J60">
+        <v>1648.7</v>
+      </c>
+      <c r="K60">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1762.5</v>
+      </c>
+      <c r="O60">
+        <v>4034.9</v>
+      </c>
+      <c r="P60">
+        <v>1948.6</v>
+      </c>
+      <c r="Q60">
+        <v>-480.5</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>4247.8999999999996</v>
+      </c>
+      <c r="U60">
+        <v>1330.3</v>
+      </c>
+      <c r="V60">
+        <v>263.2</v>
+      </c>
+      <c r="W60">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="X60">
+        <v>-607.20000000000005</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-103.1</v>
+      </c>
+      <c r="AA60">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>197.7</v>
+      </c>
+      <c r="D61">
+        <v>1248.5999999999999</v>
+      </c>
+      <c r="E61">
+        <v>577.5</v>
+      </c>
+      <c r="F61">
+        <v>797.4</v>
+      </c>
+      <c r="G61">
+        <v>2898.1</v>
+      </c>
+      <c r="H61">
+        <v>8505.9</v>
+      </c>
+      <c r="I61">
+        <v>209.1</v>
+      </c>
+      <c r="J61">
+        <v>1648.7</v>
+      </c>
+      <c r="K61">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1734.9</v>
+      </c>
+      <c r="O61">
+        <v>4077.8</v>
+      </c>
+      <c r="P61">
+        <v>1948.6</v>
+      </c>
+      <c r="Q61">
+        <v>123.2</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>4428.1000000000004</v>
+      </c>
+      <c r="U61">
+        <v>1453.5</v>
+      </c>
+      <c r="V61">
+        <v>293</v>
+      </c>
+      <c r="W61">
+        <v>-38.5</v>
+      </c>
+      <c r="X61">
+        <v>-54.3</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-43</v>
+      </c>
+      <c r="AA61">
+        <v>197.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>197.8</v>
+      </c>
+      <c r="D62">
+        <v>1319.6</v>
+      </c>
+      <c r="E62">
+        <v>780.7</v>
+      </c>
+      <c r="F62">
+        <v>838.9</v>
+      </c>
+      <c r="G62">
+        <v>2912.4</v>
+      </c>
+      <c r="H62">
+        <v>8607.9</v>
+      </c>
+      <c r="I62">
+        <v>159.30000000000001</v>
+      </c>
+      <c r="J62">
+        <v>1637.5</v>
+      </c>
+      <c r="K62">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1801.9</v>
+      </c>
+      <c r="O62">
+        <v>4033.5</v>
+      </c>
+      <c r="P62">
+        <v>1937.4</v>
+      </c>
+      <c r="Q62">
+        <v>-32.6</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>9058</v>
+      </c>
+      <c r="T62">
+        <v>4574.3999999999996</v>
+      </c>
+      <c r="U62">
+        <v>1420.9</v>
+      </c>
+      <c r="V62">
+        <v>117</v>
+      </c>
+      <c r="W62">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="X62">
+        <v>-105.2</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>19</v>
+      </c>
+      <c r="AA62">
+        <v>197.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>91.4</v>
+      </c>
+      <c r="D63">
+        <v>1097.9000000000001</v>
+      </c>
+      <c r="E63">
+        <v>783.9</v>
+      </c>
+      <c r="F63">
+        <v>690.9</v>
+      </c>
+      <c r="G63">
+        <v>3274.2</v>
+      </c>
+      <c r="H63">
+        <v>8917.7000000000007</v>
+      </c>
+      <c r="I63">
+        <v>233</v>
+      </c>
+      <c r="J63">
+        <v>2131.8000000000002</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-300</v>
+      </c>
+      <c r="N63">
+        <v>1515.3</v>
+      </c>
+      <c r="O63">
+        <v>4279.6000000000004</v>
+      </c>
+      <c r="P63">
+        <v>2131.8000000000002</v>
+      </c>
+      <c r="Q63">
+        <v>225.1</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>4638.1000000000004</v>
+      </c>
+      <c r="U63">
+        <v>1646</v>
+      </c>
+      <c r="V63">
+        <v>172.4</v>
+      </c>
+      <c r="W63">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="X63">
+        <v>104.3</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-7.9</v>
+      </c>
+      <c r="AA63">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>140</v>
+      </c>
+      <c r="D64">
+        <v>1221.3</v>
+      </c>
+      <c r="E64">
+        <v>750.3</v>
+      </c>
+      <c r="F64">
+        <v>756.4</v>
+      </c>
+      <c r="G64">
+        <v>3453.8</v>
+      </c>
+      <c r="H64">
+        <v>9062.7999999999993</v>
+      </c>
+      <c r="I64">
+        <v>228.4</v>
+      </c>
+      <c r="J64">
+        <v>2132.5</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1581.8</v>
+      </c>
+      <c r="O64">
+        <v>4386.6000000000004</v>
+      </c>
+      <c r="P64">
+        <v>2132.5</v>
+      </c>
+      <c r="Q64">
+        <v>110.9</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>4676.2</v>
+      </c>
+      <c r="U64">
+        <v>1756.9</v>
+      </c>
+      <c r="V64">
+        <v>360</v>
+      </c>
+      <c r="W64">
+        <v>-38.1</v>
+      </c>
+      <c r="X64">
+        <v>-181</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>20.7</v>
+      </c>
+      <c r="AA64">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>172.4</v>
+      </c>
+      <c r="D65">
+        <v>1285.3</v>
+      </c>
+      <c r="E65">
+        <v>753.6</v>
+      </c>
+      <c r="F65">
+        <v>799.5</v>
+      </c>
+      <c r="G65">
+        <v>3429.4</v>
+      </c>
+      <c r="H65">
+        <v>9145.2000000000007</v>
+      </c>
+      <c r="I65">
+        <v>208.4</v>
+      </c>
+      <c r="J65">
+        <v>2133.1</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1508.4</v>
+      </c>
+      <c r="O65">
+        <v>4372.7</v>
+      </c>
+      <c r="P65">
+        <v>2133.1</v>
+      </c>
+      <c r="Q65">
+        <v>-67.900000000000006</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>4772.5</v>
+      </c>
+      <c r="U65">
+        <v>1689</v>
+      </c>
+      <c r="V65">
+        <v>243.9</v>
+      </c>
+      <c r="W65">
+        <v>-38</v>
+      </c>
+      <c r="X65">
+        <v>-123.4</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-59.1</v>
+      </c>
+      <c r="AA65">
+        <v>172.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>188.9</v>
+      </c>
+      <c r="D66">
+        <v>1385.6</v>
+      </c>
+      <c r="E66">
+        <v>1054.0999999999999</v>
+      </c>
+      <c r="F66">
+        <v>857.7</v>
+      </c>
+      <c r="G66">
+        <v>3971.9</v>
+      </c>
+      <c r="H66">
+        <v>9656.5</v>
+      </c>
+      <c r="I66">
+        <v>221</v>
+      </c>
+      <c r="J66">
+        <v>2133.6999999999998</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1735.9</v>
+      </c>
+      <c r="O66">
+        <v>4694</v>
+      </c>
+      <c r="P66">
+        <v>2133.6999999999998</v>
+      </c>
+      <c r="Q66">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>9832</v>
+      </c>
+      <c r="T66">
+        <v>4962.5</v>
+      </c>
+      <c r="U66">
+        <v>1833.2</v>
+      </c>
+      <c r="V66">
+        <v>330.9</v>
+      </c>
+      <c r="W66">
+        <v>-38.1</v>
+      </c>
+      <c r="X66">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-40</v>
+      </c>
+      <c r="AA66">
+        <v>188.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>108.8</v>
+      </c>
+      <c r="D67">
+        <v>1221</v>
+      </c>
+      <c r="E67">
+        <v>670.9</v>
+      </c>
+      <c r="F67">
+        <v>746.6</v>
+      </c>
+      <c r="G67">
+        <v>3993.8</v>
+      </c>
+      <c r="H67">
+        <v>9638</v>
+      </c>
+      <c r="I67">
+        <v>201.9</v>
+      </c>
+      <c r="J67">
+        <v>2134.4</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1582.6</v>
+      </c>
+      <c r="O67">
+        <v>4619.6000000000004</v>
+      </c>
+      <c r="P67">
+        <v>2134.4</v>
+      </c>
+      <c r="Q67">
+        <v>410.1</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>5018.3999999999996</v>
+      </c>
+      <c r="U67">
+        <v>2242</v>
+      </c>
+      <c r="V67">
+        <v>546.6</v>
+      </c>
+      <c r="W67">
+        <v>-38</v>
+      </c>
+      <c r="X67">
+        <v>-134</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>22.4</v>
+      </c>
+      <c r="AA67">
+        <v>108.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>179.8</v>
+      </c>
+      <c r="D68">
+        <v>1308.9000000000001</v>
+      </c>
+      <c r="E68">
+        <v>750.4</v>
+      </c>
+      <c r="F68">
+        <v>801.9</v>
+      </c>
+      <c r="G68">
+        <v>4145.1000000000004</v>
+      </c>
+      <c r="H68">
+        <v>9752.9</v>
+      </c>
+      <c r="I68">
+        <v>210.7</v>
+      </c>
+      <c r="J68">
+        <v>2135</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1672.8</v>
+      </c>
+      <c r="O68">
+        <v>4666.7</v>
+      </c>
+      <c r="P68">
+        <v>2135</v>
+      </c>
+      <c r="Q68">
+        <v>150.5</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>5086.2</v>
+      </c>
+      <c r="U68">
+        <v>2392.5</v>
+      </c>
+      <c r="V68">
+        <v>298.7</v>
+      </c>
+      <c r="W68">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="X68">
+        <v>-161.6</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-31.6</v>
+      </c>
+      <c r="AA68">
+        <v>179.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>165.7</v>
+      </c>
+      <c r="D69">
+        <v>1257.8</v>
+      </c>
+      <c r="E69">
+        <v>724.3</v>
+      </c>
+      <c r="F69">
+        <v>772.4</v>
+      </c>
+      <c r="G69">
+        <v>4283.3</v>
+      </c>
+      <c r="H69">
+        <v>9744.2999999999993</v>
+      </c>
+      <c r="I69">
+        <v>205.4</v>
+      </c>
+      <c r="J69">
+        <v>2135.6999999999998</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1585.3</v>
+      </c>
+      <c r="O69">
+        <v>4586.2</v>
+      </c>
+      <c r="P69">
+        <v>2135.6999999999998</v>
+      </c>
+      <c r="Q69">
+        <v>-23.3</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>5158.1000000000004</v>
+      </c>
+      <c r="U69">
+        <v>2363.6999999999998</v>
+      </c>
+      <c r="V69">
+        <v>201.4</v>
+      </c>
+      <c r="W69">
+        <v>-37.700000000000003</v>
+      </c>
+      <c r="X69">
+        <v>-149</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-19.3</v>
+      </c>
+      <c r="AA69">
+        <v>165.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-148.1</v>
+      </c>
+      <c r="D70">
+        <v>1239.5</v>
+      </c>
+      <c r="E70">
+        <v>852</v>
+      </c>
+      <c r="F70">
+        <v>751.2</v>
+      </c>
+      <c r="G70">
+        <v>4184.5</v>
+      </c>
+      <c r="H70">
+        <v>9833.7999999999993</v>
+      </c>
+      <c r="I70">
+        <v>217.6</v>
+      </c>
+      <c r="J70">
+        <v>2136.3000000000002</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1738.2</v>
+      </c>
+      <c r="O70">
+        <v>5152.8999999999996</v>
+      </c>
+      <c r="P70">
+        <v>2136.3000000000002</v>
+      </c>
+      <c r="Q70">
+        <v>-358.8</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>9381</v>
+      </c>
+      <c r="T70">
+        <v>4680.8999999999996</v>
+      </c>
+      <c r="U70">
+        <v>2006.5</v>
+      </c>
+      <c r="V70">
+        <v>212.6</v>
+      </c>
+      <c r="W70">
+        <v>-36.9</v>
+      </c>
+      <c r="X70">
+        <v>-350.2</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-171.3</v>
+      </c>
+      <c r="AA70">
+        <v>-148.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>34.4</v>
+      </c>
+      <c r="D71">
+        <v>1082.5999999999999</v>
+      </c>
+      <c r="E71">
+        <v>679.9</v>
+      </c>
+      <c r="F71">
+        <v>618.4</v>
+      </c>
+      <c r="G71">
+        <v>3920.7</v>
+      </c>
+      <c r="H71">
+        <v>9078.5</v>
+      </c>
+      <c r="I71">
+        <v>189.2</v>
+      </c>
+      <c r="J71">
+        <v>1787.7</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1830</v>
+      </c>
+      <c r="O71">
+        <v>4753.8</v>
+      </c>
+      <c r="P71">
+        <v>2137</v>
+      </c>
+      <c r="Q71">
+        <v>585.9</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>4324.7</v>
+      </c>
+      <c r="U71">
+        <v>2614.1999999999998</v>
+      </c>
+      <c r="V71">
+        <v>271.10000000000002</v>
+      </c>
+      <c r="W71">
+        <v>-62.1</v>
+      </c>
+      <c r="X71">
+        <v>-803.6</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>1176.5999999999999</v>
+      </c>
+      <c r="AA71">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>116.5</v>
+      </c>
+      <c r="D72">
+        <v>1204.0999999999999</v>
+      </c>
+      <c r="E72">
+        <v>702.2</v>
+      </c>
+      <c r="F72">
+        <v>700.9</v>
+      </c>
+      <c r="G72">
+        <v>4104.6000000000004</v>
+      </c>
+      <c r="H72">
+        <v>9121</v>
+      </c>
+      <c r="I72">
+        <v>183.2</v>
+      </c>
+      <c r="J72">
+        <v>1788.2</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1808.5</v>
+      </c>
+      <c r="O72">
+        <v>4703.3</v>
+      </c>
+      <c r="P72">
+        <v>2137.6999999999998</v>
+      </c>
+      <c r="Q72">
+        <v>67</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>4417.7</v>
+      </c>
+      <c r="U72">
+        <v>2690.4</v>
+      </c>
+      <c r="V72">
+        <v>170.3</v>
+      </c>
+      <c r="W72">
+        <v>-62.8</v>
+      </c>
+      <c r="X72">
+        <v>-62.8</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>17.5</v>
+      </c>
+      <c r="AA72">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>223.8</v>
+      </c>
+      <c r="D73">
+        <v>1179.8</v>
+      </c>
+      <c r="E73">
+        <v>648.29999999999995</v>
+      </c>
+      <c r="F73">
+        <v>711</v>
+      </c>
+      <c r="G73">
+        <v>4290.7</v>
+      </c>
+      <c r="H73">
+        <v>9100.2999999999993</v>
+      </c>
+      <c r="I73">
+        <v>184.7</v>
+      </c>
+      <c r="J73">
+        <v>1788.6</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1740.5</v>
+      </c>
+      <c r="O73">
+        <v>4449.3999999999996</v>
+      </c>
+      <c r="P73">
+        <v>2138.3000000000002</v>
+      </c>
+      <c r="Q73">
+        <v>-189.2</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>4650.8999999999996</v>
+      </c>
+      <c r="U73">
+        <v>2501.6999999999998</v>
+      </c>
+      <c r="V73">
+        <v>207.3</v>
+      </c>
+      <c r="W73">
+        <v>-62.1</v>
+      </c>
+      <c r="X73">
+        <v>-37.700000000000003</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-321.7</v>
+      </c>
+      <c r="AA73">
+        <v>223.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>192.2</v>
+      </c>
+      <c r="D74">
+        <v>1181</v>
+      </c>
+      <c r="E74">
+        <v>754.6</v>
+      </c>
+      <c r="F74">
+        <v>710.9</v>
+      </c>
+      <c r="G74">
+        <v>4581.8</v>
+      </c>
+      <c r="H74">
+        <v>9363.2999999999993</v>
+      </c>
+      <c r="I74">
+        <v>208.8</v>
+      </c>
+      <c r="J74">
+        <v>1789.1</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1842.5</v>
+      </c>
+      <c r="O74">
+        <v>4540.1000000000004</v>
+      </c>
+      <c r="P74">
+        <v>2240</v>
+      </c>
+      <c r="Q74">
+        <v>-17</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>9283</v>
+      </c>
+      <c r="T74">
+        <v>4823.2</v>
+      </c>
+      <c r="U74">
+        <v>2489</v>
+      </c>
+      <c r="V74">
+        <v>212.4</v>
+      </c>
+      <c r="W74">
+        <v>-62.3</v>
+      </c>
+      <c r="X74">
+        <v>-64.5</v>
+      </c>
+      <c r="Y74">
+        <v>87.9</v>
+      </c>
+      <c r="Z74">
+        <v>-101.1</v>
+      </c>
+      <c r="AA74">
+        <v>192.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>31.1</v>
+      </c>
+      <c r="D75">
+        <v>1001.7</v>
+      </c>
+      <c r="E75">
+        <v>645.4</v>
+      </c>
+      <c r="F75">
+        <v>582.29999999999995</v>
+      </c>
+      <c r="G75">
+        <v>4309.6000000000004</v>
+      </c>
+      <c r="H75">
+        <v>9137.9</v>
+      </c>
+      <c r="I75">
+        <v>219.1</v>
+      </c>
+      <c r="J75">
+        <v>1789.6</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-350</v>
+      </c>
+      <c r="N75">
+        <v>1489.1</v>
+      </c>
+      <c r="O75">
+        <v>4286.7</v>
+      </c>
+      <c r="P75">
+        <v>2003</v>
+      </c>
+      <c r="Q75">
+        <v>-332.7</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>4851.2</v>
+      </c>
+      <c r="U75">
+        <v>2155.6</v>
+      </c>
+      <c r="V75">
+        <v>159.4</v>
+      </c>
+      <c r="W75">
+        <v>-66.2</v>
+      </c>
+      <c r="X75">
+        <v>-389.6</v>
+      </c>
+      <c r="Y75">
+        <v>176.7</v>
+      </c>
+      <c r="Z75">
+        <v>-76.2</v>
+      </c>
+      <c r="AA75">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>46.2</v>
+      </c>
+      <c r="D76">
+        <v>1102.5</v>
+      </c>
+      <c r="E76">
+        <v>659.4</v>
+      </c>
+      <c r="F76">
+        <v>636.79999999999995</v>
+      </c>
+      <c r="G76">
+        <v>3758.6</v>
+      </c>
+      <c r="H76">
+        <v>8903.2999999999993</v>
+      </c>
+      <c r="I76">
+        <v>183.3</v>
+      </c>
+      <c r="J76">
+        <v>1490.5</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1766.2</v>
+      </c>
+      <c r="O76">
+        <v>4312.1000000000004</v>
+      </c>
+      <c r="P76">
+        <v>1997.3</v>
+      </c>
+      <c r="Q76">
+        <v>-729.7</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>4591.2</v>
+      </c>
+      <c r="U76">
+        <v>1381.3</v>
+      </c>
+      <c r="V76">
+        <v>88.8</v>
+      </c>
+      <c r="W76">
+        <v>-65.5</v>
+      </c>
+      <c r="X76">
+        <v>-366.2</v>
+      </c>
+      <c r="Y76">
+        <v>167.5</v>
+      </c>
+      <c r="Z76">
+        <v>-154.6</v>
+      </c>
+      <c r="AA76">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>99.3</v>
+      </c>
+      <c r="D77">
+        <v>1133.0999999999999</v>
+      </c>
+      <c r="E77">
+        <v>635.79999999999995</v>
+      </c>
+      <c r="F77">
+        <v>678.4</v>
+      </c>
+      <c r="G77">
+        <v>3187.5</v>
+      </c>
+      <c r="H77">
+        <v>8753.6</v>
+      </c>
+      <c r="I77">
+        <v>229</v>
+      </c>
+      <c r="J77">
+        <v>1687.8</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1422.9</v>
+      </c>
+      <c r="O77">
+        <v>4111.2</v>
+      </c>
+      <c r="P77">
+        <v>1891.7</v>
+      </c>
+      <c r="Q77">
+        <v>-177.4</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>4642.3999999999996</v>
+      </c>
+      <c r="U77">
+        <v>1204.8</v>
+      </c>
+      <c r="V77">
+        <v>185</v>
+      </c>
+      <c r="W77">
+        <v>-64.7</v>
+      </c>
+      <c r="X77">
+        <v>-209.5</v>
+      </c>
+      <c r="Y77">
+        <v>163.5</v>
+      </c>
+      <c r="Z77">
+        <v>-118.9</v>
+      </c>
+      <c r="AA77">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>168.4</v>
+      </c>
+      <c r="D78">
+        <v>1208.0999999999999</v>
+      </c>
+      <c r="E78">
+        <v>879.7</v>
+      </c>
+      <c r="F78">
+        <v>719.3</v>
+      </c>
+      <c r="G78">
+        <v>3209.8</v>
+      </c>
+      <c r="H78">
+        <v>8837.7000000000007</v>
+      </c>
+      <c r="I78">
+        <v>219.5</v>
+      </c>
+      <c r="J78">
+        <v>1687</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1543.9</v>
+      </c>
+      <c r="O78">
+        <v>4227.1000000000004</v>
+      </c>
+      <c r="P78">
+        <v>1845.1</v>
+      </c>
+      <c r="Q78">
+        <v>10.5</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>9419</v>
+      </c>
+      <c r="T78">
+        <v>4610.6000000000004</v>
+      </c>
+      <c r="U78">
+        <v>1215.8</v>
+      </c>
+      <c r="V78">
+        <v>95.7</v>
+      </c>
+      <c r="W78">
+        <v>-63.7</v>
+      </c>
+      <c r="X78">
+        <v>-263.5</v>
+      </c>
+      <c r="Y78">
+        <v>158.1</v>
+      </c>
+      <c r="Z78">
+        <v>209.3</v>
+      </c>
+      <c r="AA78">
+        <v>168.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D79">
+        <v>998</v>
+      </c>
+      <c r="E79">
+        <v>675.1</v>
+      </c>
+      <c r="F79">
+        <v>579.29999999999995</v>
+      </c>
+      <c r="G79">
+        <v>2972.7</v>
+      </c>
+      <c r="H79">
+        <v>8609.5</v>
+      </c>
+      <c r="I79">
+        <v>236.4</v>
+      </c>
+      <c r="J79">
+        <v>1712.9</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1536.5</v>
+      </c>
+      <c r="O79">
+        <v>4218.8</v>
+      </c>
+      <c r="P79">
+        <v>1866.5</v>
+      </c>
+      <c r="Q79">
+        <v>183.3</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>4390.7</v>
+      </c>
+      <c r="U79">
+        <v>1398.6</v>
+      </c>
+      <c r="V79">
+        <v>272.2</v>
+      </c>
+      <c r="W79">
+        <v>-65.5</v>
+      </c>
+      <c r="X79">
+        <v>-241.6</v>
+      </c>
+      <c r="Y79">
+        <v>153.6</v>
+      </c>
+      <c r="Z79">
+        <v>190.9</v>
+      </c>
+      <c r="AA79">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>61.2</v>
+      </c>
+      <c r="D80">
+        <v>1086.3</v>
+      </c>
+      <c r="E80">
+        <v>754.7</v>
+      </c>
+      <c r="F80">
+        <v>619.6</v>
+      </c>
+      <c r="G80">
+        <v>3001.2</v>
+      </c>
+      <c r="H80">
+        <v>8741.5</v>
+      </c>
+      <c r="I80">
+        <v>238</v>
+      </c>
+      <c r="J80">
+        <v>1722.7</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1596.3</v>
+      </c>
+      <c r="O80">
+        <v>4277.2</v>
+      </c>
+      <c r="P80">
+        <v>1884.8</v>
+      </c>
+      <c r="Q80">
+        <v>61.4</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>4464.3</v>
+      </c>
+      <c r="U80">
+        <v>1460.3</v>
+      </c>
+      <c r="V80">
+        <v>97.6</v>
+      </c>
+      <c r="W80">
+        <v>-66.3</v>
+      </c>
+      <c r="X80">
+        <v>-63.1</v>
+      </c>
+      <c r="Y80">
+        <v>162.1</v>
+      </c>
+      <c r="Z80">
+        <v>42.6</v>
+      </c>
+      <c r="AA80">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>145.4</v>
+      </c>
+      <c r="D81">
+        <v>1138.2</v>
+      </c>
+      <c r="E81">
+        <v>754</v>
+      </c>
+      <c r="F81">
+        <v>657.8</v>
+      </c>
+      <c r="G81">
+        <v>3038.5</v>
+      </c>
+      <c r="H81">
+        <v>8694.7000000000007</v>
+      </c>
+      <c r="I81">
+        <v>269.60000000000002</v>
+      </c>
+      <c r="J81">
+        <v>1714.1</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1501.6</v>
+      </c>
+      <c r="O81">
+        <v>4133.8999999999996</v>
+      </c>
+      <c r="P81">
+        <v>1873.3</v>
+      </c>
+      <c r="Q81">
+        <v>-119.4</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>4560.8</v>
+      </c>
+      <c r="U81">
+        <v>1341.5</v>
+      </c>
+      <c r="V81">
+        <v>116.4</v>
+      </c>
+      <c r="W81">
+        <v>-66.2</v>
+      </c>
+      <c r="X81">
+        <v>-139.69999999999999</v>
+      </c>
+      <c r="Y81">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="Z81">
+        <v>-124.9</v>
+      </c>
+      <c r="AA81">
+        <v>145.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>30.8</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1222.5999999999999</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>964.1</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>717</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>3271.2</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>9378.2999999999993</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>277</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>1705.8</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2161.1</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>4834.8</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>2339.9</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-18.8</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>9950</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>4543.5</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1361.9</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>125.8</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-66.099999999999994</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>222</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>163.5</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>142.1</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>30.8</v>
       </c>
     </row>
